--- a/src/threshold_calc/threshold.xlsx
+++ b/src/threshold_calc/threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwy15\Documents\projects\幺明寺\zjsnr.github.io\src\threshold_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE122C2C-4E3D-461F-9305-7247C826856E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EB75B8-9583-43F9-AFE4-4EE2B67BD1B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10680" xr2:uid="{137A96BE-252E-4FEA-8752-7DC6EBB297B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="201">
   <si>
     <t>声望</t>
   </si>
@@ -564,6 +564,94 @@
   </si>
   <si>
     <t>shipID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海王星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达芬奇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣乔治</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库图佐夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查尔斯·亚当斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特拉斯堡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙彼利埃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威斯康星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲尔普斯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -939,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A335CF-90B5-4AE7-B73F-896AB722D96E}">
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L153" sqref="L153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1886,16 +1974,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E31">
         <v>400</v>
@@ -1913,7 +2001,7 @@
         <v>300</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1921,13 +2009,13 @@
         <v>136</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>400</v>
@@ -1936,7 +2024,7 @@
         <v>30</v>
       </c>
       <c r="G32">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -1956,10 +2044,10 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>400</v>
@@ -1968,7 +2056,7 @@
         <v>30</v>
       </c>
       <c r="G33">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -1988,10 +2076,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="E34">
         <v>400</v>
@@ -2000,7 +2088,7 @@
         <v>30</v>
       </c>
       <c r="G34">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -2014,94 +2102,112 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F35">
         <v>30</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="H35">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="E36">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>30</v>
       </c>
       <c r="G36">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H36">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>227</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>250</v>
-      </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
-      <c r="G37">
-        <v>300</v>
-      </c>
-      <c r="H37">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="L36">
+        <v>300</v>
+      </c>
+      <c r="M36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>380</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="1">
+        <v>400</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1">
+        <v>600</v>
+      </c>
+      <c r="H37" s="1">
+        <v>30</v>
+      </c>
+      <c r="L37" s="1">
+        <v>300</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="E38">
         <v>250</v>
@@ -2121,13 +2227,13 @@
         <v>142</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>250</v>
@@ -2147,13 +2253,13 @@
         <v>142</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>250</v>
@@ -2173,13 +2279,13 @@
         <v>142</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>250</v>
@@ -2191,30 +2297,30 @@
         <v>300</v>
       </c>
       <c r="H41">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F42">
         <v>30</v>
       </c>
       <c r="G42">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H42">
         <v>300</v>
@@ -2222,25 +2328,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F43">
         <v>30</v>
       </c>
       <c r="G43">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H43">
         <v>300</v>
@@ -2248,28 +2354,28 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F44">
         <v>30</v>
       </c>
       <c r="G44">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2280,10 +2386,10 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>300</v>
@@ -2303,13 +2409,13 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E46">
         <v>300</v>
@@ -2329,13 +2435,13 @@
         <v>143</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>300</v>
@@ -2355,13 +2461,13 @@
         <v>143</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -2384,10 +2490,10 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49">
         <v>300</v>
@@ -2410,10 +2516,10 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E50">
         <v>300</v>
@@ -2436,10 +2542,10 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>300</v>
@@ -2462,10 +2568,10 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="E52">
         <v>300</v>
@@ -2488,10 +2594,10 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E53">
         <v>300</v>
@@ -2508,16 +2614,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E54">
         <v>300</v>
@@ -2526,7 +2632,7 @@
         <v>30</v>
       </c>
       <c r="G54">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H54">
         <v>300</v>
@@ -2534,16 +2640,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>300</v>
@@ -2560,16 +2666,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>300</v>
@@ -2578,50 +2684,50 @@
         <v>30</v>
       </c>
       <c r="G56">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>370</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="1">
+        <v>300</v>
+      </c>
+      <c r="F57" s="1">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1">
         <v>450</v>
       </c>
-      <c r="H56">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57">
-        <v>300</v>
-      </c>
-      <c r="F57">
-        <v>30</v>
-      </c>
-      <c r="G57">
-        <v>250</v>
-      </c>
-      <c r="H57">
-        <v>30</v>
+      <c r="H57" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>300</v>
@@ -2630,24 +2736,24 @@
         <v>30</v>
       </c>
       <c r="G58">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H58">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E59">
         <v>300</v>
@@ -2656,24 +2762,24 @@
         <v>30</v>
       </c>
       <c r="G59">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E60">
         <v>300</v>
@@ -2682,36 +2788,36 @@
         <v>30</v>
       </c>
       <c r="G60">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61">
-        <v>300</v>
-      </c>
-      <c r="F61">
-        <v>30</v>
-      </c>
-      <c r="G61">
-        <v>250</v>
-      </c>
-      <c r="H61">
-        <v>30</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>338</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="1">
+        <v>300</v>
+      </c>
+      <c r="F61" s="1">
+        <v>30</v>
+      </c>
+      <c r="G61" s="1">
+        <v>400</v>
+      </c>
+      <c r="H61" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,10 +2828,10 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E62">
         <v>300</v>
@@ -2748,10 +2854,10 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E63">
         <v>300</v>
@@ -2774,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E64">
         <v>300</v>
@@ -2800,10 +2906,10 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E65">
         <v>300</v>
@@ -2826,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E66">
         <v>300</v>
@@ -2852,10 +2958,10 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>300</v>
@@ -2878,10 +2984,10 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E68">
         <v>300</v>
@@ -2904,10 +3010,10 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E69">
         <v>300</v>
@@ -2927,22 +3033,22 @@
         <v>149</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E70">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F70">
         <v>30</v>
       </c>
       <c r="G70">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H70">
         <v>30</v>
@@ -2953,22 +3059,22 @@
         <v>149</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E71">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F71">
         <v>30</v>
       </c>
       <c r="G71">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H71">
         <v>30</v>
@@ -2979,22 +3085,22 @@
         <v>149</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E72">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F72">
         <v>30</v>
       </c>
       <c r="G72">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H72">
         <v>30</v>
@@ -3005,22 +3111,22 @@
         <v>149</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E73">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F73">
         <v>30</v>
       </c>
       <c r="G73">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H73">
         <v>30</v>
@@ -3031,22 +3137,22 @@
         <v>149</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E74">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F74">
         <v>30</v>
       </c>
       <c r="G74">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H74">
         <v>30</v>
@@ -3060,10 +3166,10 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E75">
         <v>350</v>
@@ -3086,10 +3192,10 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="E76">
         <v>350</v>
@@ -3112,10 +3218,10 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E77">
         <v>350</v>
@@ -3135,22 +3241,22 @@
         <v>149</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E78">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F78">
         <v>30</v>
       </c>
       <c r="G78">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H78">
         <v>30</v>
@@ -3161,279 +3267,207 @@
         <v>149</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E79">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F79">
         <v>30</v>
       </c>
       <c r="G79">
+        <v>300</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>236</v>
+      </c>
+      <c r="D80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80">
         <v>350</v>
       </c>
-      <c r="H79">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80" s="1">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1">
-        <v>352</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" s="1">
-        <v>350</v>
-      </c>
-      <c r="F80" s="1">
-        <v>30</v>
-      </c>
-      <c r="G80" s="1">
-        <v>300</v>
-      </c>
-      <c r="H80" s="1">
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>300</v>
+      </c>
+      <c r="H80">
         <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>51</v>
+        <v>329</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="F81">
         <v>30</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H81">
         <v>30</v>
-      </c>
-      <c r="I81">
-        <v>400</v>
-      </c>
-      <c r="K81">
-        <v>500</v>
-      </c>
-      <c r="L81">
-        <v>101</v>
-      </c>
-      <c r="M81" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>52</v>
+        <v>340</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="F82">
         <v>30</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H82">
         <v>30</v>
       </c>
-      <c r="I82">
-        <v>400</v>
-      </c>
-      <c r="K82">
-        <v>500</v>
-      </c>
-      <c r="L82">
-        <v>101</v>
-      </c>
-      <c r="M82" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>152</v>
-      </c>
-      <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83">
-        <v>53</v>
-      </c>
-      <c r="D83" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83">
-        <v>30</v>
-      </c>
-      <c r="F83">
-        <v>30</v>
-      </c>
-      <c r="G83">
-        <v>30</v>
-      </c>
-      <c r="H83">
-        <v>30</v>
-      </c>
-      <c r="I83">
-        <v>400</v>
-      </c>
-      <c r="K83">
-        <v>500</v>
-      </c>
-      <c r="L83">
-        <v>101</v>
-      </c>
-      <c r="M83" t="s">
-        <v>91</v>
+    </row>
+    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4</v>
+      </c>
+      <c r="C83" s="1">
+        <v>246</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="1">
+        <v>350</v>
+      </c>
+      <c r="F83" s="1">
+        <v>30</v>
+      </c>
+      <c r="G83" s="1">
+        <v>300</v>
+      </c>
+      <c r="H83" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>400</v>
       </c>
       <c r="F84">
         <v>30</v>
       </c>
       <c r="G84">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="H84">
         <v>30</v>
-      </c>
-      <c r="I84">
-        <v>400</v>
-      </c>
-      <c r="K84">
-        <v>500</v>
-      </c>
-      <c r="L84">
-        <v>101</v>
-      </c>
-      <c r="M84" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F85">
         <v>30</v>
       </c>
       <c r="G85">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H85">
         <v>30</v>
       </c>
-      <c r="I85">
-        <v>400</v>
-      </c>
-      <c r="K85">
-        <v>500</v>
-      </c>
-      <c r="L85">
-        <v>101</v>
-      </c>
-      <c r="M85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86">
-        <v>54</v>
-      </c>
-      <c r="D86" t="s">
-        <v>70</v>
-      </c>
-      <c r="E86">
-        <v>60</v>
-      </c>
-      <c r="F86">
-        <v>30</v>
-      </c>
-      <c r="G86">
-        <v>60</v>
-      </c>
-      <c r="H86">
-        <v>30</v>
-      </c>
-      <c r="I86">
-        <v>400</v>
-      </c>
-      <c r="K86">
-        <v>500</v>
-      </c>
-      <c r="L86">
-        <v>101</v>
-      </c>
-      <c r="M86" t="s">
-        <v>91</v>
+    </row>
+    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1">
+        <v>352</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="1">
+        <v>350</v>
+      </c>
+      <c r="F86" s="1">
+        <v>30</v>
+      </c>
+      <c r="G86" s="1">
+        <v>300</v>
+      </c>
+      <c r="H86" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -3441,22 +3475,22 @@
         <v>152</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E87">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F87">
         <v>30</v>
       </c>
       <c r="G87">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>30</v>
@@ -3479,22 +3513,22 @@
         <v>152</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E88">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F88">
         <v>30</v>
       </c>
       <c r="G88">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>30</v>
@@ -3506,7 +3540,7 @@
         <v>500</v>
       </c>
       <c r="L88">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="M88" t="s">
         <v>91</v>
@@ -3517,22 +3551,22 @@
         <v>152</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E89">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F89">
         <v>30</v>
       </c>
       <c r="G89">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>30</v>
@@ -3555,22 +3589,22 @@
         <v>152</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E90">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F90">
         <v>30</v>
       </c>
       <c r="G90">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>30</v>
@@ -3596,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="C91">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="E91">
         <v>60</v>
@@ -3634,10 +3668,10 @@
         <v>3</v>
       </c>
       <c r="C92">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="D92" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E92">
         <v>60</v>
@@ -3669,34 +3703,34 @@
         <v>152</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E93">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F93">
         <v>30</v>
       </c>
       <c r="G93">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H93">
         <v>30</v>
       </c>
       <c r="I93">
+        <v>400</v>
+      </c>
+      <c r="K93">
         <v>500</v>
       </c>
-      <c r="K93">
-        <v>600</v>
-      </c>
       <c r="L93">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M93" t="s">
         <v>91</v>
@@ -3707,34 +3741,34 @@
         <v>152</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D94" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E94">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F94">
         <v>30</v>
       </c>
       <c r="G94">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H94">
         <v>30</v>
       </c>
       <c r="I94">
+        <v>400</v>
+      </c>
+      <c r="K94">
         <v>500</v>
       </c>
-      <c r="K94">
-        <v>600</v>
-      </c>
       <c r="L94">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M94" t="s">
         <v>91</v>
@@ -3745,34 +3779,34 @@
         <v>152</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95">
+        <v>58</v>
+      </c>
+      <c r="D95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95">
         <v>60</v>
       </c>
-      <c r="D95" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95">
-        <v>90</v>
-      </c>
       <c r="F95">
         <v>30</v>
       </c>
       <c r="G95">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H95">
         <v>30</v>
       </c>
       <c r="I95">
+        <v>400</v>
+      </c>
+      <c r="K95">
         <v>500</v>
       </c>
-      <c r="K95">
-        <v>600</v>
-      </c>
       <c r="L95">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M95" t="s">
         <v>91</v>
@@ -3783,34 +3817,34 @@
         <v>152</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E96">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F96">
         <v>30</v>
       </c>
       <c r="G96">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H96">
         <v>30</v>
       </c>
       <c r="I96">
+        <v>400</v>
+      </c>
+      <c r="K96">
         <v>500</v>
       </c>
-      <c r="K96">
-        <v>600</v>
-      </c>
       <c r="L96">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M96" t="s">
         <v>91</v>
@@ -3821,34 +3855,34 @@
         <v>152</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D97" t="s">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="E97">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F97">
         <v>30</v>
       </c>
       <c r="G97">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H97">
         <v>30</v>
       </c>
       <c r="I97">
+        <v>400</v>
+      </c>
+      <c r="K97">
         <v>500</v>
       </c>
-      <c r="K97">
-        <v>600</v>
-      </c>
       <c r="L97">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M97" t="s">
         <v>91</v>
@@ -3859,34 +3893,34 @@
         <v>152</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E98">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F98">
         <v>30</v>
       </c>
       <c r="G98">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H98">
         <v>30</v>
       </c>
       <c r="I98">
+        <v>400</v>
+      </c>
+      <c r="K98">
         <v>500</v>
       </c>
-      <c r="K98">
-        <v>600</v>
-      </c>
       <c r="L98">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M98" t="s">
         <v>91</v>
@@ -3900,10 +3934,10 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="D99" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E99">
         <v>90</v>
@@ -3924,7 +3958,7 @@
         <v>600</v>
       </c>
       <c r="L99">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M99" t="s">
         <v>91</v>
@@ -3938,10 +3972,10 @@
         <v>4</v>
       </c>
       <c r="C100">
-        <v>312</v>
+        <v>59</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="E100">
         <v>90</v>
@@ -3962,7 +3996,7 @@
         <v>600</v>
       </c>
       <c r="L100">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M100" t="s">
         <v>91</v>
@@ -3976,10 +4010,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E101">
         <v>90</v>
@@ -4000,7 +4034,7 @@
         <v>600</v>
       </c>
       <c r="L101">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M101" t="s">
         <v>91</v>
@@ -4014,10 +4048,10 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>353</v>
+        <v>61</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E102">
         <v>90</v>
@@ -4038,7 +4072,7 @@
         <v>600</v>
       </c>
       <c r="L102">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M102" t="s">
         <v>91</v>
@@ -4052,31 +4086,31 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E103">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F103">
         <v>30</v>
       </c>
       <c r="G103">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H103">
         <v>30</v>
       </c>
       <c r="I103">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="K103">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="L103">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M103" t="s">
         <v>91</v>
@@ -4087,34 +4121,34 @@
         <v>152</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E104">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F104">
         <v>30</v>
       </c>
       <c r="G104">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H104">
         <v>30</v>
       </c>
       <c r="I104">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="K104">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="L104">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M104" t="s">
         <v>91</v>
@@ -4125,31 +4159,34 @@
         <v>152</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E105">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F105">
         <v>30</v>
       </c>
       <c r="G105">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H105">
         <v>30</v>
       </c>
       <c r="I105">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K105">
-        <v>400</v>
+        <v>600</v>
+      </c>
+      <c r="L105">
+        <v>201</v>
       </c>
       <c r="M105" t="s">
         <v>91</v>
@@ -4160,31 +4197,34 @@
         <v>152</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="E106">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F106">
         <v>30</v>
       </c>
       <c r="G106">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H106">
         <v>30</v>
       </c>
       <c r="I106">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K106">
-        <v>400</v>
+        <v>600</v>
+      </c>
+      <c r="L106">
+        <v>201</v>
       </c>
       <c r="M106" t="s">
         <v>91</v>
@@ -4195,31 +4235,34 @@
         <v>152</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="D107" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E107">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F107">
         <v>30</v>
       </c>
       <c r="G107">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H107">
         <v>30</v>
       </c>
       <c r="I107">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K107">
-        <v>400</v>
+        <v>600</v>
+      </c>
+      <c r="L107">
+        <v>201</v>
       </c>
       <c r="M107" t="s">
         <v>91</v>
@@ -4230,25 +4273,37 @@
         <v>152</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="D108" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108">
         <v>90</v>
       </c>
-      <c r="E108">
-        <v>120</v>
-      </c>
       <c r="F108">
         <v>30</v>
       </c>
       <c r="G108">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H108">
         <v>30</v>
+      </c>
+      <c r="I108">
+        <v>500</v>
+      </c>
+      <c r="K108">
+        <v>600</v>
+      </c>
+      <c r="L108">
+        <v>201</v>
+      </c>
+      <c r="M108" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -4256,92 +4311,110 @@
         <v>152</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>360</v>
+        <v>152</v>
       </c>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="E109">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F109">
         <v>30</v>
       </c>
       <c r="G109">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H109">
         <v>30</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>260</v>
-      </c>
-      <c r="D110" t="s">
-        <v>92</v>
-      </c>
-      <c r="E110">
-        <v>30</v>
-      </c>
-      <c r="F110">
-        <v>30</v>
-      </c>
-      <c r="G110">
-        <v>30</v>
-      </c>
-      <c r="H110">
-        <v>30</v>
-      </c>
-      <c r="I110">
-        <v>200</v>
-      </c>
-      <c r="K110">
-        <v>200</v>
-      </c>
-      <c r="M110" t="s">
-        <v>91</v>
+      <c r="I109">
+        <v>251</v>
+      </c>
+      <c r="K109">
+        <v>401</v>
+      </c>
+      <c r="L109">
+        <v>231</v>
+      </c>
+      <c r="M109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4</v>
+      </c>
+      <c r="C110" s="1">
+        <v>390</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E110" s="1">
+        <v>90</v>
+      </c>
+      <c r="F110" s="1">
+        <v>30</v>
+      </c>
+      <c r="G110" s="1">
+        <v>90</v>
+      </c>
+      <c r="H110" s="1">
+        <v>30</v>
+      </c>
+      <c r="I110" s="1">
+        <v>500</v>
+      </c>
+      <c r="K110" s="1">
+        <v>600</v>
+      </c>
+      <c r="L110" s="1">
+        <v>201</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C111">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D111" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E111">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F111">
         <v>30</v>
       </c>
       <c r="G111">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H111">
         <v>30</v>
       </c>
       <c r="I111">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="K111">
-        <v>200</v>
+        <v>401</v>
+      </c>
+      <c r="L111">
+        <v>231</v>
       </c>
       <c r="M111" t="s">
         <v>91</v>
@@ -4349,34 +4422,34 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D112" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E112">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F112">
         <v>30</v>
       </c>
       <c r="G112">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H112">
         <v>30</v>
       </c>
       <c r="I112">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K112">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M112" t="s">
         <v>91</v>
@@ -4384,34 +4457,34 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C113">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E113">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F113">
         <v>30</v>
       </c>
       <c r="G113">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H113">
         <v>30</v>
       </c>
       <c r="I113">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K113">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M113" t="s">
         <v>91</v>
@@ -4419,34 +4492,34 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="D114" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F114">
         <v>30</v>
       </c>
       <c r="G114">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H114">
         <v>30</v>
       </c>
       <c r="I114">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K114">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M114" t="s">
         <v>91</v>
@@ -4454,107 +4527,80 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D115" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E115">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F115">
         <v>30</v>
       </c>
       <c r="G115">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H115">
         <v>30</v>
-      </c>
-      <c r="I115">
-        <v>200</v>
-      </c>
-      <c r="K115">
-        <v>200</v>
-      </c>
-      <c r="M115" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="D116" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="E116">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F116">
         <v>30</v>
       </c>
       <c r="G116">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H116">
         <v>30</v>
       </c>
-      <c r="I116">
-        <v>200</v>
-      </c>
-      <c r="K116">
-        <v>200</v>
-      </c>
-      <c r="M116" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>157</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117">
-        <v>79</v>
-      </c>
-      <c r="D117" t="s">
-        <v>99</v>
-      </c>
-      <c r="E117">
-        <v>130</v>
-      </c>
-      <c r="F117">
-        <v>30</v>
-      </c>
-      <c r="G117">
-        <v>130</v>
-      </c>
-      <c r="H117">
-        <v>30</v>
-      </c>
-      <c r="I117">
-        <v>200</v>
-      </c>
-      <c r="K117">
-        <v>200</v>
-      </c>
-      <c r="M117" t="s">
-        <v>91</v>
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B117" s="1">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>371</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E117" s="1">
+        <v>120</v>
+      </c>
+      <c r="F117" s="1">
+        <v>30</v>
+      </c>
+      <c r="G117" s="1">
+        <v>120</v>
+      </c>
+      <c r="H117" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -4562,34 +4608,31 @@
         <v>157</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>68</v>
+        <v>260</v>
       </c>
       <c r="D118" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E118">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F118">
         <v>30</v>
       </c>
       <c r="G118">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>30</v>
       </c>
       <c r="I118">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K118">
-        <v>300</v>
-      </c>
-      <c r="L118">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M118" t="s">
         <v>91</v>
@@ -4600,34 +4643,31 @@
         <v>157</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E119">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F119">
         <v>30</v>
       </c>
       <c r="G119">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>30</v>
       </c>
       <c r="I119">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K119">
-        <v>300</v>
-      </c>
-      <c r="L119">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M119" t="s">
         <v>91</v>
@@ -4638,34 +4678,31 @@
         <v>157</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E120">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F120">
         <v>30</v>
       </c>
       <c r="G120">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>30</v>
       </c>
       <c r="I120">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K120">
-        <v>300</v>
-      </c>
-      <c r="L120">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M120" t="s">
         <v>91</v>
@@ -4676,34 +4713,31 @@
         <v>157</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="D121" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E121">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F121">
         <v>30</v>
       </c>
       <c r="G121">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>30</v>
       </c>
       <c r="I121">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K121">
-        <v>300</v>
-      </c>
-      <c r="L121">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M121" t="s">
         <v>91</v>
@@ -4714,34 +4748,31 @@
         <v>157</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="D122" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E122">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F122">
         <v>30</v>
       </c>
       <c r="G122">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>30</v>
       </c>
       <c r="I122">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K122">
-        <v>300</v>
-      </c>
-      <c r="L122">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M122" t="s">
         <v>91</v>
@@ -4752,34 +4783,31 @@
         <v>157</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="D123" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E123">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F123">
         <v>30</v>
       </c>
       <c r="G123">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>30</v>
       </c>
       <c r="I123">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K123">
-        <v>300</v>
-      </c>
-      <c r="L123">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M123" t="s">
         <v>91</v>
@@ -4790,34 +4818,31 @@
         <v>157</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="D124" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="E124">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F124">
         <v>30</v>
       </c>
       <c r="G124">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H124">
         <v>30</v>
       </c>
       <c r="I124">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K124">
-        <v>300</v>
-      </c>
-      <c r="L124">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M124" t="s">
         <v>91</v>
@@ -4828,34 +4853,31 @@
         <v>157</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E125">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F125">
         <v>30</v>
       </c>
       <c r="G125">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H125">
         <v>30</v>
       </c>
       <c r="I125">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K125">
-        <v>300</v>
-      </c>
-      <c r="L125">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M125" t="s">
         <v>91</v>
@@ -4869,10 +4891,10 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E126">
         <v>60</v>
@@ -4907,10 +4929,10 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>275</v>
+        <v>69</v>
       </c>
       <c r="D127" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E127">
         <v>60</v>
@@ -4945,10 +4967,10 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="D128" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E128">
         <v>60</v>
@@ -4983,10 +5005,10 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>277</v>
+        <v>71</v>
       </c>
       <c r="D129" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E129">
         <v>60</v>
@@ -5021,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="D130" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E130">
         <v>60</v>
@@ -5059,10 +5081,10 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>279</v>
+        <v>166</v>
       </c>
       <c r="D131" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E131">
         <v>60</v>
@@ -5097,10 +5119,10 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="E132">
         <v>60</v>
@@ -5132,37 +5154,34 @@
         <v>157</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D133" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E133">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F133">
         <v>30</v>
       </c>
       <c r="G133">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H133">
         <v>30</v>
       </c>
       <c r="I133">
-        <v>130</v>
-      </c>
-      <c r="J133">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K133">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="L133">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="M133" t="s">
         <v>91</v>
@@ -5173,34 +5192,34 @@
         <v>157</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D134" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E134">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F134">
         <v>30</v>
       </c>
       <c r="G134">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H134">
         <v>30</v>
       </c>
       <c r="I134">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K134">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L134">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M134" t="s">
         <v>91</v>
@@ -5211,34 +5230,34 @@
         <v>157</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>186</v>
+        <v>275</v>
       </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E135">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F135">
         <v>30</v>
       </c>
       <c r="G135">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H135">
         <v>30</v>
       </c>
       <c r="I135">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K135">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L135">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M135" t="s">
         <v>91</v>
@@ -5249,34 +5268,34 @@
         <v>157</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="D136" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E136">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F136">
         <v>30</v>
       </c>
       <c r="G136">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H136">
         <v>30</v>
       </c>
       <c r="I136">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K136">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L136">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M136" t="s">
         <v>91</v>
@@ -5287,34 +5306,34 @@
         <v>157</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D137" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E137">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F137">
         <v>30</v>
       </c>
       <c r="G137">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H137">
         <v>30</v>
       </c>
       <c r="I137">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K137">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L137">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M137" t="s">
         <v>91</v>
@@ -5325,34 +5344,34 @@
         <v>157</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D138" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E138">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F138">
         <v>30</v>
       </c>
       <c r="G138">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H138">
         <v>30</v>
       </c>
       <c r="I138">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K138">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L138">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M138" t="s">
         <v>91</v>
@@ -5363,34 +5382,34 @@
         <v>157</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E139">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F139">
         <v>30</v>
       </c>
       <c r="G139">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H139">
         <v>30</v>
       </c>
       <c r="I139">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K139">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L139">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M139" t="s">
         <v>91</v>
@@ -5401,34 +5420,34 @@
         <v>157</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="D140" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E140">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F140">
         <v>30</v>
       </c>
       <c r="G140">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H140">
         <v>30</v>
       </c>
       <c r="I140">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K140">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L140">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M140" t="s">
         <v>91</v>
@@ -5442,31 +5461,34 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="E141">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F141">
         <v>30</v>
       </c>
       <c r="G141">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>30</v>
       </c>
       <c r="I141">
-        <v>400</v>
+        <v>130</v>
+      </c>
+      <c r="J141">
+        <v>130</v>
       </c>
       <c r="K141">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="L141">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="M141" t="s">
         <v>91</v>
@@ -5480,10 +5502,10 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="D142" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="E142">
         <v>90</v>
@@ -5504,7 +5526,7 @@
         <v>400</v>
       </c>
       <c r="L142">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="M142" t="s">
         <v>91</v>
@@ -5515,25 +5537,37 @@
         <v>157</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="D143" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E143">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F143">
         <v>30</v>
       </c>
       <c r="G143">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H143">
         <v>30</v>
+      </c>
+      <c r="I143">
+        <v>400</v>
+      </c>
+      <c r="K143">
+        <v>400</v>
+      </c>
+      <c r="L143">
+        <v>201</v>
+      </c>
+      <c r="M143" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -5541,25 +5575,37 @@
         <v>157</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E144">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F144">
         <v>30</v>
       </c>
       <c r="G144">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H144">
         <v>30</v>
+      </c>
+      <c r="I144">
+        <v>400</v>
+      </c>
+      <c r="K144">
+        <v>400</v>
+      </c>
+      <c r="L144">
+        <v>201</v>
+      </c>
+      <c r="M144" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -5567,25 +5613,37 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="D145" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E145">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F145">
         <v>30</v>
       </c>
       <c r="G145">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H145">
         <v>30</v>
+      </c>
+      <c r="I145">
+        <v>400</v>
+      </c>
+      <c r="K145">
+        <v>400</v>
+      </c>
+      <c r="L145">
+        <v>201</v>
+      </c>
+      <c r="M145" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -5593,25 +5651,37 @@
         <v>157</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E146">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F146">
         <v>30</v>
       </c>
       <c r="G146">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H146">
         <v>30</v>
+      </c>
+      <c r="I146">
+        <v>400</v>
+      </c>
+      <c r="K146">
+        <v>400</v>
+      </c>
+      <c r="L146">
+        <v>201</v>
+      </c>
+      <c r="M146" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -5619,25 +5689,37 @@
         <v>157</v>
       </c>
       <c r="B147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="D147" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E147">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F147">
         <v>30</v>
       </c>
       <c r="G147">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H147">
         <v>30</v>
+      </c>
+      <c r="I147">
+        <v>400</v>
+      </c>
+      <c r="K147">
+        <v>400</v>
+      </c>
+      <c r="L147">
+        <v>201</v>
+      </c>
+      <c r="M147" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -5645,25 +5727,37 @@
         <v>157</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E148">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F148">
         <v>30</v>
       </c>
       <c r="G148">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H148">
         <v>30</v>
+      </c>
+      <c r="I148">
+        <v>400</v>
+      </c>
+      <c r="K148">
+        <v>400</v>
+      </c>
+      <c r="L148">
+        <v>201</v>
+      </c>
+      <c r="M148" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -5671,325 +5765,298 @@
         <v>157</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D149" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E149">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F149">
         <v>30</v>
       </c>
       <c r="G149">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H149">
         <v>30</v>
+      </c>
+      <c r="I149">
+        <v>400</v>
+      </c>
+      <c r="K149">
+        <v>400</v>
+      </c>
+      <c r="L149">
+        <v>201</v>
+      </c>
+      <c r="M149" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="D150" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="E150">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F150">
         <v>30</v>
       </c>
       <c r="G150">
+        <v>90</v>
+      </c>
+      <c r="H150">
+        <v>30</v>
+      </c>
+      <c r="I150">
+        <v>400</v>
+      </c>
+      <c r="K150">
+        <v>400</v>
+      </c>
+      <c r="L150">
+        <v>100</v>
+      </c>
+      <c r="M150" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4</v>
+      </c>
+      <c r="C151" s="1">
+        <v>350</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="H150">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>165</v>
-      </c>
-      <c r="B151">
-        <v>6</v>
-      </c>
-      <c r="C151">
-        <v>309</v>
-      </c>
-      <c r="D151" t="s">
-        <v>166</v>
-      </c>
-      <c r="E151">
-        <v>30</v>
-      </c>
-      <c r="F151">
-        <v>30</v>
-      </c>
-      <c r="G151">
+      <c r="E151" s="1">
+        <v>90</v>
+      </c>
+      <c r="F151" s="1">
+        <v>30</v>
+      </c>
+      <c r="G151" s="1">
+        <v>90</v>
+      </c>
+      <c r="H151" s="1">
+        <v>30</v>
+      </c>
+      <c r="I151" s="1">
+        <v>400</v>
+      </c>
+      <c r="J151" s="1">
         <v>200</v>
       </c>
-      <c r="H151">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>167</v>
-      </c>
-      <c r="B152">
-        <v>3</v>
-      </c>
-      <c r="C152">
-        <v>361</v>
-      </c>
-      <c r="D152" t="s">
-        <v>168</v>
-      </c>
-      <c r="E152">
-        <v>30</v>
-      </c>
-      <c r="F152">
-        <v>30</v>
-      </c>
-      <c r="G152">
-        <v>60</v>
-      </c>
-      <c r="H152">
-        <v>30</v>
-      </c>
-      <c r="I152">
-        <v>400</v>
-      </c>
-      <c r="K152">
-        <v>400</v>
-      </c>
-      <c r="L152">
+      <c r="K151" s="1">
+        <v>400</v>
+      </c>
+      <c r="L151" s="1">
         <v>201</v>
       </c>
-      <c r="M152" t="s">
-        <v>91</v>
+      <c r="M151" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1">
+        <v>372</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E152" s="1">
+        <v>90</v>
+      </c>
+      <c r="F152" s="1">
+        <v>30</v>
+      </c>
+      <c r="G152" s="1">
+        <v>90</v>
+      </c>
+      <c r="H152" s="1">
+        <v>30</v>
+      </c>
+      <c r="I152" s="1">
+        <v>400</v>
+      </c>
+      <c r="K152" s="1">
+        <v>400</v>
+      </c>
+      <c r="L152" s="1">
+        <v>201</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C153">
-        <v>293</v>
+        <v>99</v>
       </c>
       <c r="D153" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="E153">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F153">
         <v>30</v>
       </c>
       <c r="G153">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H153">
         <v>30</v>
-      </c>
-      <c r="I153">
-        <v>212</v>
-      </c>
-      <c r="J153">
-        <v>261</v>
-      </c>
-      <c r="K153">
-        <v>203</v>
-      </c>
-      <c r="L153">
-        <v>107</v>
-      </c>
-      <c r="M153" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="D154" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F154">
         <v>30</v>
       </c>
       <c r="G154">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H154">
         <v>30</v>
-      </c>
-      <c r="I154">
-        <v>300</v>
-      </c>
-      <c r="J154">
-        <v>1000</v>
-      </c>
-      <c r="K154">
-        <v>300</v>
-      </c>
-      <c r="L154">
-        <v>130</v>
-      </c>
-      <c r="M154" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B155">
         <v>5</v>
       </c>
       <c r="C155">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D155" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E155">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F155">
         <v>30</v>
       </c>
       <c r="G155">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H155">
         <v>30</v>
-      </c>
-      <c r="I155">
-        <v>300</v>
-      </c>
-      <c r="K155">
-        <v>300</v>
-      </c>
-      <c r="L155">
-        <v>130</v>
-      </c>
-      <c r="M155" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <v>5</v>
       </c>
       <c r="C156">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F156">
         <v>30</v>
       </c>
       <c r="G156">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H156">
         <v>30</v>
-      </c>
-      <c r="I156">
-        <v>300</v>
-      </c>
-      <c r="K156">
-        <v>300</v>
-      </c>
-      <c r="L156">
-        <v>130</v>
-      </c>
-      <c r="M156" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>5</v>
       </c>
       <c r="C157">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D157" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E157">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F157">
         <v>30</v>
       </c>
       <c r="G157">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H157">
         <v>30</v>
-      </c>
-      <c r="I157">
-        <v>300</v>
-      </c>
-      <c r="K157">
-        <v>300</v>
-      </c>
-      <c r="L157">
-        <v>130</v>
-      </c>
-      <c r="M157" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>5</v>
       </c>
       <c r="C158">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D158" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E158">
         <v>120</v>
@@ -6003,180 +6070,614 @@
       <c r="H158">
         <v>30</v>
       </c>
-      <c r="I158">
-        <v>301</v>
-      </c>
-      <c r="K158">
-        <v>301</v>
-      </c>
-      <c r="M158" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="D159" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E159">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F159">
         <v>30</v>
       </c>
       <c r="G159">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H159">
         <v>30</v>
-      </c>
-      <c r="I159">
-        <v>300</v>
-      </c>
-      <c r="K159">
-        <v>300</v>
-      </c>
-      <c r="L159">
-        <v>130</v>
-      </c>
-      <c r="M159" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="D160" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="E160">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F160">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G160">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H160">
         <v>30</v>
-      </c>
-      <c r="K160">
-        <v>300</v>
-      </c>
-      <c r="L160">
-        <v>130</v>
-      </c>
-      <c r="M160" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="D161" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E161">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F161">
+        <v>30</v>
+      </c>
+      <c r="G161">
         <v>200</v>
       </c>
-      <c r="G161">
-        <v>100</v>
-      </c>
       <c r="H161">
         <v>30</v>
-      </c>
-      <c r="K161">
-        <v>300</v>
-      </c>
-      <c r="L161">
-        <v>130</v>
-      </c>
-      <c r="M161" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C162">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="D162" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E162">
+        <v>30</v>
+      </c>
+      <c r="F162">
+        <v>30</v>
+      </c>
+      <c r="G162">
         <v>200</v>
       </c>
-      <c r="F162">
-        <v>130</v>
-      </c>
-      <c r="G162">
-        <v>130</v>
-      </c>
       <c r="H162">
-        <v>200</v>
-      </c>
-      <c r="K162">
-        <v>600</v>
-      </c>
-      <c r="M162" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <v>361</v>
+      </c>
+      <c r="D163" t="s">
+        <v>168</v>
+      </c>
+      <c r="E163">
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <v>30</v>
+      </c>
+      <c r="G163">
+        <v>60</v>
+      </c>
+      <c r="H163">
+        <v>30</v>
+      </c>
+      <c r="I163">
+        <v>400</v>
+      </c>
+      <c r="K163">
+        <v>400</v>
+      </c>
+      <c r="L163">
+        <v>201</v>
+      </c>
+      <c r="M163" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>293</v>
+      </c>
+      <c r="D164" t="s">
+        <v>169</v>
+      </c>
+      <c r="E164">
+        <v>30</v>
+      </c>
+      <c r="F164">
+        <v>30</v>
+      </c>
+      <c r="G164">
+        <v>60</v>
+      </c>
+      <c r="H164">
+        <v>30</v>
+      </c>
+      <c r="I164">
+        <v>212</v>
+      </c>
+      <c r="J164">
+        <v>261</v>
+      </c>
+      <c r="K164">
+        <v>203</v>
+      </c>
+      <c r="L164">
+        <v>107</v>
+      </c>
+      <c r="M164" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>351</v>
+      </c>
+      <c r="D165" t="s">
+        <v>170</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165">
+        <v>60</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165">
+        <v>300</v>
+      </c>
+      <c r="K165">
+        <v>300</v>
+      </c>
+      <c r="L165">
+        <v>130</v>
+      </c>
+      <c r="M165" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4</v>
+      </c>
+      <c r="C166" s="1">
+        <v>373</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E166" s="1">
+        <v>30</v>
+      </c>
+      <c r="F166" s="1">
+        <v>30</v>
+      </c>
+      <c r="G166" s="1">
+        <v>60</v>
+      </c>
+      <c r="H166" s="1">
+        <v>30</v>
+      </c>
+      <c r="I166" s="1">
+        <v>200</v>
+      </c>
+      <c r="K166" s="1">
+        <v>200</v>
+      </c>
+      <c r="L166" s="1">
+        <v>130</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>194</v>
+      </c>
+      <c r="D167" t="s">
+        <v>126</v>
+      </c>
+      <c r="E167">
+        <v>30</v>
+      </c>
+      <c r="F167">
+        <v>30</v>
+      </c>
+      <c r="G167">
+        <v>60</v>
+      </c>
+      <c r="H167">
+        <v>30</v>
+      </c>
+      <c r="I167">
+        <v>300</v>
+      </c>
+      <c r="K167">
+        <v>300</v>
+      </c>
+      <c r="L167">
+        <v>130</v>
+      </c>
+      <c r="M167" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>195</v>
+      </c>
+      <c r="D168" t="s">
+        <v>127</v>
+      </c>
+      <c r="E168">
+        <v>30</v>
+      </c>
+      <c r="F168">
+        <v>30</v>
+      </c>
+      <c r="G168">
+        <v>60</v>
+      </c>
+      <c r="H168">
+        <v>30</v>
+      </c>
+      <c r="I168">
+        <v>300</v>
+      </c>
+      <c r="K168">
+        <v>300</v>
+      </c>
+      <c r="L168">
+        <v>130</v>
+      </c>
+      <c r="M168" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>198</v>
+      </c>
+      <c r="D169" t="s">
+        <v>128</v>
+      </c>
+      <c r="E169">
+        <v>30</v>
+      </c>
+      <c r="F169">
+        <v>30</v>
+      </c>
+      <c r="G169">
+        <v>60</v>
+      </c>
+      <c r="H169">
+        <v>30</v>
+      </c>
+      <c r="I169">
+        <v>300</v>
+      </c>
+      <c r="K169">
+        <v>300</v>
+      </c>
+      <c r="L169">
+        <v>130</v>
+      </c>
+      <c r="M169" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>290</v>
+      </c>
+      <c r="D170" t="s">
+        <v>171</v>
+      </c>
+      <c r="E170">
+        <v>120</v>
+      </c>
+      <c r="F170">
+        <v>30</v>
+      </c>
+      <c r="G170">
+        <v>120</v>
+      </c>
+      <c r="H170">
+        <v>30</v>
+      </c>
+      <c r="I170">
+        <v>301</v>
+      </c>
+      <c r="K170">
+        <v>301</v>
+      </c>
+      <c r="M170" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>294</v>
+      </c>
+      <c r="D171" t="s">
+        <v>129</v>
+      </c>
+      <c r="E171">
+        <v>30</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>60</v>
+      </c>
+      <c r="H171">
+        <v>30</v>
+      </c>
+      <c r="I171">
+        <v>300</v>
+      </c>
+      <c r="K171">
+        <v>300</v>
+      </c>
+      <c r="L171">
+        <v>130</v>
+      </c>
+      <c r="M171" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>196</v>
+      </c>
+      <c r="D172" t="s">
+        <v>130</v>
+      </c>
+      <c r="E172">
+        <v>50</v>
+      </c>
+      <c r="F172">
+        <v>200</v>
+      </c>
+      <c r="G172">
+        <v>100</v>
+      </c>
+      <c r="H172">
+        <v>30</v>
+      </c>
+      <c r="K172">
+        <v>300</v>
+      </c>
+      <c r="L172">
+        <v>130</v>
+      </c>
+      <c r="M172" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+      <c r="C173">
+        <v>199</v>
+      </c>
+      <c r="D173" t="s">
+        <v>131</v>
+      </c>
+      <c r="E173">
+        <v>50</v>
+      </c>
+      <c r="F173">
+        <v>200</v>
+      </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+      <c r="H173">
+        <v>30</v>
+      </c>
+      <c r="K173">
+        <v>300</v>
+      </c>
+      <c r="L173">
+        <v>130</v>
+      </c>
+      <c r="M173" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <v>363</v>
+      </c>
+      <c r="D174" t="s">
+        <v>174</v>
+      </c>
+      <c r="E174">
+        <v>200</v>
+      </c>
+      <c r="F174">
+        <v>130</v>
+      </c>
+      <c r="G174">
+        <v>130</v>
+      </c>
+      <c r="H174">
+        <v>200</v>
+      </c>
+      <c r="K174">
+        <v>600</v>
+      </c>
+      <c r="M174" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>175</v>
       </c>
-      <c r="B163">
+      <c r="B175">
         <v>5</v>
       </c>
-      <c r="C163">
+      <c r="C175">
         <v>307</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D175" t="s">
         <v>176</v>
       </c>
-      <c r="E163">
+      <c r="E175">
         <v>200</v>
       </c>
-      <c r="F163">
-        <v>30</v>
-      </c>
-      <c r="G163">
+      <c r="F175">
+        <v>30</v>
+      </c>
+      <c r="G175">
         <v>200</v>
       </c>
-      <c r="H163">
-        <v>30</v>
+      <c r="H175">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B176" s="1">
+        <v>5</v>
+      </c>
+      <c r="C176" s="1">
+        <v>391</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E176" s="1">
+        <v>200</v>
+      </c>
+      <c r="F176" s="1">
+        <v>130</v>
+      </c>
+      <c r="G176" s="1">
+        <v>130</v>
+      </c>
+      <c r="H176" s="1">
+        <v>200</v>
+      </c>
+      <c r="I176" s="1">
+        <v>600</v>
+      </c>
+      <c r="K176" s="1">
+        <v>600</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/src/threshold_calc/threshold.xlsx
+++ b/src/threshold_calc/threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwy15\Documents\projects\幺明寺\zjsnr.github.io\src\threshold_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EB75B8-9583-43F9-AFE4-4EE2B67BD1B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DED9A-35DE-4E80-A846-B3E926877CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10680" xr2:uid="{137A96BE-252E-4FEA-8752-7DC6EBB297B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="209">
   <si>
     <t>声望</t>
   </si>
@@ -652,6 +652,38 @@
   </si>
   <si>
     <t>菲尔普斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克利夫兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得梅因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧金山</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1027,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A335CF-90B5-4AE7-B73F-896AB722D96E}">
-  <dimension ref="A1:M176"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L153" sqref="L153"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3314,81 +3346,81 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>240</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="1">
+        <v>350</v>
+      </c>
+      <c r="F81" s="1">
+        <v>30</v>
+      </c>
+      <c r="G81" s="1">
+        <v>300</v>
+      </c>
+      <c r="H81" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>246</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="1">
+        <v>350</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30</v>
+      </c>
+      <c r="G82" s="1">
+        <v>300</v>
+      </c>
+      <c r="H82" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>149</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>4</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <v>329</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" t="s">
         <v>150</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>350</v>
       </c>
-      <c r="F81">
-        <v>30</v>
-      </c>
-      <c r="G81">
-        <v>300</v>
-      </c>
-      <c r="H81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82">
-        <v>340</v>
-      </c>
-      <c r="D82" t="s">
-        <v>62</v>
-      </c>
-      <c r="E82">
-        <v>350</v>
-      </c>
-      <c r="F82">
-        <v>30</v>
-      </c>
-      <c r="G82">
-        <v>300</v>
-      </c>
-      <c r="H82">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83" s="1">
-        <v>4</v>
-      </c>
-      <c r="C83" s="1">
-        <v>246</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E83" s="1">
-        <v>350</v>
-      </c>
-      <c r="F83" s="1">
-        <v>30</v>
-      </c>
-      <c r="G83" s="1">
-        <v>300</v>
-      </c>
-      <c r="H83" s="1">
+      <c r="F83">
+        <v>30</v>
+      </c>
+      <c r="G83">
+        <v>300</v>
+      </c>
+      <c r="H83">
         <v>30</v>
       </c>
     </row>
@@ -3397,22 +3429,22 @@
         <v>149</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E84">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F84">
         <v>30</v>
       </c>
       <c r="G84">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H84">
         <v>30</v>
@@ -3426,10 +3458,10 @@
         <v>5</v>
       </c>
       <c r="C85">
-        <v>241</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E85">
         <v>400</v>
@@ -3444,106 +3476,82 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>241</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86">
+        <v>400</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>350</v>
+      </c>
+      <c r="H86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="1">
         <v>6</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C87" s="1">
+        <v>243</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87">
+        <v>400</v>
+      </c>
+      <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>350</v>
+      </c>
+      <c r="H87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="1">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1">
         <v>352</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E88" s="1">
         <v>350</v>
       </c>
-      <c r="F86" s="1">
-        <v>30</v>
-      </c>
-      <c r="G86" s="1">
-        <v>300</v>
-      </c>
-      <c r="H86" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>51</v>
-      </c>
-      <c r="D87" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87">
-        <v>30</v>
-      </c>
-      <c r="F87">
-        <v>30</v>
-      </c>
-      <c r="G87">
-        <v>30</v>
-      </c>
-      <c r="H87">
-        <v>30</v>
-      </c>
-      <c r="I87">
-        <v>400</v>
-      </c>
-      <c r="K87">
-        <v>500</v>
-      </c>
-      <c r="L87">
-        <v>101</v>
-      </c>
-      <c r="M87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88">
-        <v>52</v>
-      </c>
-      <c r="D88" t="s">
-        <v>66</v>
-      </c>
-      <c r="E88">
-        <v>30</v>
-      </c>
-      <c r="F88">
-        <v>30</v>
-      </c>
-      <c r="G88">
-        <v>30</v>
-      </c>
-      <c r="H88">
-        <v>30</v>
-      </c>
-      <c r="I88">
-        <v>400</v>
-      </c>
-      <c r="K88">
-        <v>500</v>
-      </c>
-      <c r="L88">
-        <v>131</v>
-      </c>
-      <c r="M88" t="s">
-        <v>91</v>
+      <c r="F88" s="1">
+        <v>30</v>
+      </c>
+      <c r="G88" s="1">
+        <v>300</v>
+      </c>
+      <c r="H88" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -3554,10 +3562,10 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E89">
         <v>30</v>
@@ -3592,10 +3600,10 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E90">
         <v>30</v>
@@ -3616,7 +3624,7 @@
         <v>500</v>
       </c>
       <c r="L90">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="M90" t="s">
         <v>91</v>
@@ -3627,22 +3635,22 @@
         <v>152</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E91">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F91">
         <v>30</v>
       </c>
       <c r="G91">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>30</v>
@@ -3665,22 +3673,22 @@
         <v>152</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E92">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F92">
         <v>30</v>
       </c>
       <c r="G92">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>30</v>
@@ -3706,10 +3714,10 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E93">
         <v>60</v>
@@ -3744,10 +3752,10 @@
         <v>3</v>
       </c>
       <c r="C94">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E94">
         <v>60</v>
@@ -3782,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="C95">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E95">
         <v>60</v>
@@ -3820,10 +3828,10 @@
         <v>3</v>
       </c>
       <c r="C96">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E96">
         <v>60</v>
@@ -3858,10 +3866,10 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="E97">
         <v>60</v>
@@ -3896,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C98">
-        <v>249</v>
+        <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E98">
         <v>60</v>
@@ -3931,34 +3939,34 @@
         <v>152</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="E99">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F99">
         <v>30</v>
       </c>
       <c r="G99">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H99">
         <v>30</v>
       </c>
       <c r="I99">
+        <v>400</v>
+      </c>
+      <c r="K99">
         <v>500</v>
       </c>
-      <c r="K99">
-        <v>600</v>
-      </c>
       <c r="L99">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M99" t="s">
         <v>91</v>
@@ -3969,34 +3977,34 @@
         <v>152</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="D100" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E100">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <v>30</v>
       </c>
       <c r="G100">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H100">
         <v>30</v>
       </c>
       <c r="I100">
+        <v>400</v>
+      </c>
+      <c r="K100">
         <v>500</v>
       </c>
-      <c r="K100">
-        <v>600</v>
-      </c>
       <c r="L100">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M100" t="s">
         <v>91</v>
@@ -4010,10 +4018,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E101">
         <v>90</v>
@@ -4048,10 +4056,10 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E102">
         <v>90</v>
@@ -4086,10 +4094,10 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E103">
         <v>90</v>
@@ -4124,10 +4132,10 @@
         <v>4</v>
       </c>
       <c r="C104">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="D104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E104">
         <v>90</v>
@@ -4162,10 +4170,10 @@
         <v>4</v>
       </c>
       <c r="C105">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E105">
         <v>90</v>
@@ -4200,10 +4208,10 @@
         <v>4</v>
       </c>
       <c r="C106">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="D106" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="E106">
         <v>90</v>
@@ -4238,10 +4246,10 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>314</v>
+        <v>162</v>
       </c>
       <c r="D107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E107">
         <v>90</v>
@@ -4268,42 +4276,42 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108">
+    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="1">
         <v>4</v>
       </c>
-      <c r="C108">
-        <v>353</v>
-      </c>
-      <c r="D108" t="s">
-        <v>84</v>
-      </c>
-      <c r="E108">
+      <c r="C108" s="1">
+        <v>252</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="1">
         <v>90</v>
       </c>
-      <c r="F108">
-        <v>30</v>
-      </c>
-      <c r="G108">
+      <c r="F108" s="1">
+        <v>30</v>
+      </c>
+      <c r="G108" s="1">
         <v>90</v>
       </c>
-      <c r="H108">
-        <v>30</v>
-      </c>
-      <c r="I108">
+      <c r="H108" s="1">
+        <v>30</v>
+      </c>
+      <c r="I108" s="1">
         <v>500</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="1">
         <v>600</v>
       </c>
-      <c r="L108">
-        <v>201</v>
-      </c>
-      <c r="M108" t="s">
-        <v>91</v>
+      <c r="L108" s="1">
+        <v>200</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -4314,72 +4322,72 @@
         <v>4</v>
       </c>
       <c r="C109">
+        <v>312</v>
+      </c>
+      <c r="D109" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109">
+        <v>90</v>
+      </c>
+      <c r="F109">
+        <v>30</v>
+      </c>
+      <c r="G109">
+        <v>90</v>
+      </c>
+      <c r="H109">
+        <v>30</v>
+      </c>
+      <c r="I109">
+        <v>500</v>
+      </c>
+      <c r="K109">
+        <v>600</v>
+      </c>
+      <c r="L109">
+        <v>201</v>
+      </c>
+      <c r="M109" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>152</v>
       </c>
-      <c r="D109" t="s">
-        <v>85</v>
-      </c>
-      <c r="E109">
-        <v>130</v>
-      </c>
-      <c r="F109">
-        <v>30</v>
-      </c>
-      <c r="G109">
-        <v>130</v>
-      </c>
-      <c r="H109">
-        <v>30</v>
-      </c>
-      <c r="I109">
-        <v>251</v>
-      </c>
-      <c r="K109">
-        <v>401</v>
-      </c>
-      <c r="L109">
-        <v>231</v>
-      </c>
-      <c r="M109" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>4</v>
       </c>
-      <c r="C110" s="1">
-        <v>390</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E110" s="1">
+      <c r="C110">
+        <v>314</v>
+      </c>
+      <c r="D110" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110">
         <v>90</v>
       </c>
-      <c r="F110" s="1">
-        <v>30</v>
-      </c>
-      <c r="G110" s="1">
+      <c r="F110">
+        <v>30</v>
+      </c>
+      <c r="G110">
         <v>90</v>
       </c>
-      <c r="H110" s="1">
-        <v>30</v>
-      </c>
-      <c r="I110" s="1">
+      <c r="H110">
+        <v>30</v>
+      </c>
+      <c r="I110">
         <v>500</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K110">
         <v>600</v>
       </c>
-      <c r="L110" s="1">
+      <c r="L110">
         <v>201</v>
       </c>
-      <c r="M110" s="1" t="s">
-        <v>185</v>
+      <c r="M110" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -4387,34 +4395,34 @@
         <v>152</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="D111" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E111">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F111">
         <v>30</v>
       </c>
       <c r="G111">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H111">
         <v>30</v>
       </c>
       <c r="I111">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="K111">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="L111">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M111" t="s">
         <v>91</v>
@@ -4425,69 +4433,75 @@
         <v>152</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D112" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E112">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F112">
         <v>30</v>
       </c>
       <c r="G112">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H112">
         <v>30</v>
       </c>
       <c r="I112">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="K112">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="L112">
+        <v>231</v>
       </c>
       <c r="M112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113">
-        <v>5</v>
-      </c>
-      <c r="C113">
-        <v>248</v>
-      </c>
-      <c r="D113" t="s">
-        <v>88</v>
-      </c>
-      <c r="E113">
-        <v>120</v>
-      </c>
-      <c r="F113">
-        <v>30</v>
-      </c>
-      <c r="G113">
-        <v>120</v>
-      </c>
-      <c r="H113">
-        <v>30</v>
-      </c>
-      <c r="I113">
-        <v>400</v>
-      </c>
-      <c r="K113">
-        <v>400</v>
-      </c>
-      <c r="M113" t="s">
-        <v>91</v>
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1">
+        <v>390</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="1">
+        <v>90</v>
+      </c>
+      <c r="F113" s="1">
+        <v>30</v>
+      </c>
+      <c r="G113" s="1">
+        <v>90</v>
+      </c>
+      <c r="H113" s="1">
+        <v>30</v>
+      </c>
+      <c r="I113" s="1">
+        <v>500</v>
+      </c>
+      <c r="K113" s="1">
+        <v>600</v>
+      </c>
+      <c r="L113" s="1">
+        <v>201</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -4498,28 +4512,31 @@
         <v>5</v>
       </c>
       <c r="C114">
-        <v>337</v>
+        <v>153</v>
       </c>
       <c r="D114" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E114">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F114">
         <v>30</v>
       </c>
       <c r="G114">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H114">
         <v>30</v>
       </c>
       <c r="I114">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="K114">
-        <v>400</v>
+        <v>401</v>
+      </c>
+      <c r="L114">
+        <v>231</v>
       </c>
       <c r="M114" t="s">
         <v>91</v>
@@ -4533,10 +4550,10 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E115">
         <v>120</v>
@@ -4549,6 +4566,15 @@
       </c>
       <c r="H115">
         <v>30</v>
+      </c>
+      <c r="I115">
+        <v>400</v>
+      </c>
+      <c r="K115">
+        <v>400</v>
+      </c>
+      <c r="M115" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -4559,10 +4585,10 @@
         <v>5</v>
       </c>
       <c r="C116">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="E116">
         <v>120</v>
@@ -4576,136 +4602,127 @@
       <c r="H116">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B117" s="1">
-        <v>6</v>
-      </c>
-      <c r="C117" s="1">
-        <v>371</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E117" s="1">
+      <c r="I116">
+        <v>400</v>
+      </c>
+      <c r="K116">
+        <v>400</v>
+      </c>
+      <c r="M116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>337</v>
+      </c>
+      <c r="D117" t="s">
+        <v>89</v>
+      </c>
+      <c r="E117">
         <v>120</v>
       </c>
-      <c r="F117" s="1">
-        <v>30</v>
-      </c>
-      <c r="G117" s="1">
+      <c r="F117">
+        <v>30</v>
+      </c>
+      <c r="G117">
         <v>120</v>
       </c>
-      <c r="H117" s="1">
-        <v>30</v>
+      <c r="H117">
+        <v>30</v>
+      </c>
+      <c r="I117">
+        <v>400</v>
+      </c>
+      <c r="K117">
+        <v>400</v>
+      </c>
+      <c r="M117" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="D118" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F118">
         <v>30</v>
       </c>
       <c r="G118">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H118">
         <v>30</v>
-      </c>
-      <c r="I118">
-        <v>200</v>
-      </c>
-      <c r="K118">
-        <v>200</v>
-      </c>
-      <c r="M118" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="D119" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F119">
         <v>30</v>
       </c>
       <c r="G119">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H119">
         <v>30</v>
       </c>
-      <c r="I119">
-        <v>200</v>
-      </c>
-      <c r="K119">
-        <v>200</v>
-      </c>
-      <c r="M119" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>157</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120">
-        <v>167</v>
-      </c>
-      <c r="D120" t="s">
-        <v>94</v>
-      </c>
-      <c r="E120">
-        <v>30</v>
-      </c>
-      <c r="F120">
-        <v>30</v>
-      </c>
-      <c r="G120">
-        <v>30</v>
-      </c>
-      <c r="H120">
-        <v>30</v>
-      </c>
-      <c r="I120">
-        <v>200</v>
-      </c>
-      <c r="K120">
-        <v>200</v>
-      </c>
-      <c r="M120" t="s">
-        <v>91</v>
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="1">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>371</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E120" s="1">
+        <v>120</v>
+      </c>
+      <c r="F120" s="1">
+        <v>30</v>
+      </c>
+      <c r="G120" s="1">
+        <v>120</v>
+      </c>
+      <c r="H120" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4713,13 +4730,13 @@
         <v>157</v>
       </c>
       <c r="B121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E121">
         <v>30</v>
@@ -4751,10 +4768,10 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>269</v>
+        <v>74</v>
       </c>
       <c r="D122" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E122">
         <v>30</v>
@@ -4786,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="D123" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E123">
         <v>30</v>
@@ -4821,19 +4838,19 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E124">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F124">
         <v>30</v>
       </c>
       <c r="G124">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>30</v>
@@ -4856,19 +4873,19 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="D125" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E125">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="F125">
         <v>30</v>
       </c>
       <c r="G125">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>30</v>
@@ -4888,34 +4905,31 @@
         <v>157</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E126">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F126">
         <v>30</v>
       </c>
       <c r="G126">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>30</v>
       </c>
       <c r="I126">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K126">
-        <v>300</v>
-      </c>
-      <c r="L126">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M126" t="s">
         <v>91</v>
@@ -4926,34 +4940,31 @@
         <v>157</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D127" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E127">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F127">
         <v>30</v>
       </c>
       <c r="G127">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H127">
         <v>30</v>
       </c>
       <c r="I127">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K127">
-        <v>300</v>
-      </c>
-      <c r="L127">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M127" t="s">
         <v>91</v>
@@ -4964,34 +4975,31 @@
         <v>157</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E128">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F128">
         <v>30</v>
       </c>
       <c r="G128">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H128">
         <v>30</v>
       </c>
       <c r="I128">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K128">
-        <v>300</v>
-      </c>
-      <c r="L128">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M128" t="s">
         <v>91</v>
@@ -5005,10 +5013,10 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D129" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E129">
         <v>60</v>
@@ -5043,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D130" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E130">
         <v>60</v>
@@ -5081,10 +5089,10 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="D131" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E131">
         <v>60</v>
@@ -5119,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="E132">
         <v>60</v>
@@ -5157,10 +5165,10 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="D133" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E133">
         <v>60</v>
@@ -5195,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>263</v>
+        <v>166</v>
       </c>
       <c r="D134" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E134">
         <v>60</v>
@@ -5233,10 +5241,10 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E135">
         <v>60</v>
@@ -5271,10 +5279,10 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="D136" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E136">
         <v>60</v>
@@ -5309,10 +5317,10 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D137" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E137">
         <v>60</v>
@@ -5347,10 +5355,10 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D138" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E138">
         <v>60</v>
@@ -5385,10 +5393,10 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D139" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E139">
         <v>60</v>
@@ -5423,10 +5431,10 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D140" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E140">
         <v>60</v>
@@ -5458,37 +5466,34 @@
         <v>157</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="D141" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E141">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F141">
         <v>30</v>
       </c>
       <c r="G141">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H141">
         <v>30</v>
       </c>
       <c r="I141">
-        <v>130</v>
-      </c>
-      <c r="J141">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K141">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="L141">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="M141" t="s">
         <v>91</v>
@@ -5499,34 +5504,34 @@
         <v>157</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="D142" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E142">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F142">
         <v>30</v>
       </c>
       <c r="G142">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H142">
         <v>30</v>
       </c>
       <c r="I142">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K142">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L142">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M142" t="s">
         <v>91</v>
@@ -5537,34 +5542,34 @@
         <v>157</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E143">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F143">
         <v>30</v>
       </c>
       <c r="G143">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H143">
         <v>30</v>
       </c>
       <c r="I143">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K143">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L143">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M143" t="s">
         <v>91</v>
@@ -5578,31 +5583,34 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D144" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E144">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F144">
         <v>30</v>
       </c>
       <c r="G144">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>30</v>
       </c>
       <c r="I144">
-        <v>400</v>
+        <v>130</v>
+      </c>
+      <c r="J144">
+        <v>130</v>
       </c>
       <c r="K144">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="L144">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="M144" t="s">
         <v>91</v>
@@ -5616,10 +5624,10 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>264</v>
+        <v>185</v>
       </c>
       <c r="D145" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E145">
         <v>90</v>
@@ -5654,10 +5662,10 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E146">
         <v>90</v>
@@ -5692,10 +5700,10 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="D147" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E147">
         <v>90</v>
@@ -5722,42 +5730,42 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>157</v>
-      </c>
-      <c r="B148">
+    <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B148" s="1">
         <v>4</v>
       </c>
-      <c r="C148">
-        <v>316</v>
-      </c>
-      <c r="D148" t="s">
-        <v>159</v>
-      </c>
-      <c r="E148">
+      <c r="C148" s="1">
+        <v>262</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E148" s="1">
         <v>90</v>
       </c>
-      <c r="F148">
-        <v>30</v>
-      </c>
-      <c r="G148">
+      <c r="F148" s="1">
+        <v>30</v>
+      </c>
+      <c r="G148" s="1">
         <v>90</v>
       </c>
-      <c r="H148">
-        <v>30</v>
-      </c>
-      <c r="I148">
-        <v>400</v>
-      </c>
-      <c r="K148">
-        <v>400</v>
-      </c>
-      <c r="L148">
+      <c r="H148" s="1">
+        <v>30</v>
+      </c>
+      <c r="I148" s="1">
+        <v>400</v>
+      </c>
+      <c r="K148" s="1">
+        <v>400</v>
+      </c>
+      <c r="L148" s="1">
         <v>201</v>
       </c>
-      <c r="M148" t="s">
-        <v>91</v>
+      <c r="M148" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -5768,10 +5776,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="D149" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="E149">
         <v>90</v>
@@ -5806,10 +5814,10 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="D150" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="E150">
         <v>90</v>
@@ -5830,89 +5838,86 @@
         <v>400</v>
       </c>
       <c r="L150">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="M150" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B151" s="1">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151">
         <v>4</v>
       </c>
-      <c r="C151" s="1">
-        <v>350</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E151" s="1">
+      <c r="C151">
+        <v>301</v>
+      </c>
+      <c r="D151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151">
         <v>90</v>
       </c>
-      <c r="F151" s="1">
-        <v>30</v>
-      </c>
-      <c r="G151" s="1">
+      <c r="F151">
+        <v>30</v>
+      </c>
+      <c r="G151">
         <v>90</v>
       </c>
-      <c r="H151" s="1">
-        <v>30</v>
-      </c>
-      <c r="I151" s="1">
-        <v>400</v>
-      </c>
-      <c r="J151" s="1">
-        <v>200</v>
-      </c>
-      <c r="K151" s="1">
-        <v>400</v>
-      </c>
-      <c r="L151" s="1">
+      <c r="H151">
+        <v>30</v>
+      </c>
+      <c r="I151">
+        <v>400</v>
+      </c>
+      <c r="K151">
+        <v>400</v>
+      </c>
+      <c r="L151">
         <v>201</v>
       </c>
-      <c r="M151" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B152" s="1">
+      <c r="M151" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152">
         <v>4</v>
       </c>
-      <c r="C152" s="1">
-        <v>372</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E152" s="1">
+      <c r="C152">
+        <v>316</v>
+      </c>
+      <c r="D152" t="s">
+        <v>159</v>
+      </c>
+      <c r="E152">
         <v>90</v>
       </c>
-      <c r="F152" s="1">
-        <v>30</v>
-      </c>
-      <c r="G152" s="1">
+      <c r="F152">
+        <v>30</v>
+      </c>
+      <c r="G152">
         <v>90</v>
       </c>
-      <c r="H152" s="1">
-        <v>30</v>
-      </c>
-      <c r="I152" s="1">
-        <v>400</v>
-      </c>
-      <c r="K152" s="1">
-        <v>400</v>
-      </c>
-      <c r="L152" s="1">
+      <c r="H152">
+        <v>30</v>
+      </c>
+      <c r="I152">
+        <v>400</v>
+      </c>
+      <c r="K152">
+        <v>400</v>
+      </c>
+      <c r="L152">
         <v>201</v>
       </c>
-      <c r="M152" s="1" t="s">
-        <v>185</v>
+      <c r="M152" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -5920,25 +5925,37 @@
         <v>157</v>
       </c>
       <c r="B153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="D153" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E153">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F153">
         <v>30</v>
       </c>
       <c r="G153">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H153">
         <v>30</v>
+      </c>
+      <c r="I153">
+        <v>400</v>
+      </c>
+      <c r="K153">
+        <v>400</v>
+      </c>
+      <c r="L153">
+        <v>201</v>
+      </c>
+      <c r="M153" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -5946,77 +5963,116 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="D154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E154">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F154">
         <v>30</v>
       </c>
       <c r="G154">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H154">
         <v>30</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155">
-        <v>5</v>
-      </c>
-      <c r="C155">
-        <v>180</v>
-      </c>
-      <c r="D155" t="s">
-        <v>122</v>
-      </c>
-      <c r="E155">
-        <v>120</v>
-      </c>
-      <c r="F155">
-        <v>30</v>
-      </c>
-      <c r="G155">
-        <v>120</v>
-      </c>
-      <c r="H155">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156">
-        <v>5</v>
-      </c>
-      <c r="C156">
-        <v>181</v>
-      </c>
-      <c r="D156" t="s">
-        <v>123</v>
-      </c>
-      <c r="E156">
-        <v>120</v>
-      </c>
-      <c r="F156">
-        <v>30</v>
-      </c>
-      <c r="G156">
-        <v>120</v>
-      </c>
-      <c r="H156">
-        <v>30</v>
+      <c r="I154">
+        <v>400</v>
+      </c>
+      <c r="K154">
+        <v>400</v>
+      </c>
+      <c r="L154">
+        <v>100</v>
+      </c>
+      <c r="M154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1">
+        <v>350</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E155" s="1">
+        <v>90</v>
+      </c>
+      <c r="F155" s="1">
+        <v>30</v>
+      </c>
+      <c r="G155" s="1">
+        <v>90</v>
+      </c>
+      <c r="H155" s="1">
+        <v>30</v>
+      </c>
+      <c r="I155" s="1">
+        <v>400</v>
+      </c>
+      <c r="J155" s="1">
+        <v>200</v>
+      </c>
+      <c r="K155" s="1">
+        <v>400</v>
+      </c>
+      <c r="L155" s="1">
+        <v>201</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1">
+        <v>372</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" s="1">
+        <v>90</v>
+      </c>
+      <c r="F156" s="1">
+        <v>30</v>
+      </c>
+      <c r="G156" s="1">
+        <v>90</v>
+      </c>
+      <c r="H156" s="1">
+        <v>30</v>
+      </c>
+      <c r="I156" s="1">
+        <v>400</v>
+      </c>
+      <c r="K156" s="1">
+        <v>400</v>
+      </c>
+      <c r="L156" s="1">
+        <v>201</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -6027,10 +6083,10 @@
         <v>5</v>
       </c>
       <c r="C157">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="D157" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E157">
         <v>120</v>
@@ -6053,10 +6109,10 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>281</v>
+        <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E158">
         <v>120</v>
@@ -6079,10 +6135,10 @@
         <v>5</v>
       </c>
       <c r="C159">
-        <v>323</v>
+        <v>180</v>
       </c>
       <c r="D159" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="E159">
         <v>120</v>
@@ -6099,16 +6155,16 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B160">
         <v>5</v>
       </c>
       <c r="C160">
-        <v>347</v>
+        <v>181</v>
       </c>
       <c r="D160" t="s">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="E160">
         <v>120</v>
@@ -6125,25 +6181,25 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="D161" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E161">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F161">
         <v>30</v>
       </c>
       <c r="G161">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H161">
         <v>30</v>
@@ -6151,25 +6207,25 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="D162" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E162">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F162">
         <v>30</v>
       </c>
       <c r="G162">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="H162">
         <v>30</v>
@@ -6177,95 +6233,68 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="D163" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E163">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F163">
         <v>30</v>
       </c>
       <c r="G163">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H163">
         <v>30</v>
-      </c>
-      <c r="I163">
-        <v>400</v>
-      </c>
-      <c r="K163">
-        <v>400</v>
-      </c>
-      <c r="L163">
-        <v>201</v>
-      </c>
-      <c r="M163" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="D164" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="E164">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F164">
         <v>30</v>
       </c>
       <c r="G164">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H164">
         <v>30</v>
-      </c>
-      <c r="I164">
-        <v>212</v>
-      </c>
-      <c r="J164">
-        <v>261</v>
-      </c>
-      <c r="K164">
-        <v>203</v>
-      </c>
-      <c r="L164">
-        <v>107</v>
-      </c>
-      <c r="M164" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>4</v>
       </c>
       <c r="C165">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="D165" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E165">
         <v>30</v>
@@ -6274,60 +6303,36 @@
         <v>30</v>
       </c>
       <c r="G165">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="H165">
         <v>30</v>
       </c>
-      <c r="I165">
-        <v>300</v>
-      </c>
-      <c r="K165">
-        <v>300</v>
-      </c>
-      <c r="L165">
-        <v>130</v>
-      </c>
-      <c r="M165" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B166" s="1">
-        <v>4</v>
-      </c>
-      <c r="C166" s="1">
-        <v>373</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E166" s="1">
-        <v>30</v>
-      </c>
-      <c r="F166" s="1">
-        <v>30</v>
-      </c>
-      <c r="G166" s="1">
-        <v>60</v>
-      </c>
-      <c r="H166" s="1">
-        <v>30</v>
-      </c>
-      <c r="I166" s="1">
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>309</v>
+      </c>
+      <c r="D166" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166">
+        <v>30</v>
+      </c>
+      <c r="F166">
+        <v>30</v>
+      </c>
+      <c r="G166">
         <v>200</v>
       </c>
-      <c r="K166" s="1">
-        <v>200</v>
-      </c>
-      <c r="L166" s="1">
-        <v>130</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>185</v>
+      <c r="H166">
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -6335,13 +6340,13 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C167">
-        <v>194</v>
+        <v>361</v>
       </c>
       <c r="D167" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="E167">
         <v>30</v>
@@ -6356,16 +6361,16 @@
         <v>30</v>
       </c>
       <c r="I167">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K167">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L167">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="M167" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -6373,13 +6378,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C168">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="D168" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E168">
         <v>30</v>
@@ -6394,16 +6399,19 @@
         <v>30</v>
       </c>
       <c r="I168">
-        <v>300</v>
+        <v>212</v>
+      </c>
+      <c r="J168">
+        <v>261</v>
       </c>
       <c r="K168">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="L168">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="M168" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -6411,13 +6419,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C169">
-        <v>198</v>
+        <v>351</v>
       </c>
       <c r="D169" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="E169">
         <v>30</v>
@@ -6444,39 +6452,42 @@
         <v>155</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>167</v>
-      </c>
-      <c r="B170">
-        <v>5</v>
-      </c>
-      <c r="C170">
-        <v>290</v>
-      </c>
-      <c r="D170" t="s">
-        <v>171</v>
-      </c>
-      <c r="E170">
-        <v>120</v>
-      </c>
-      <c r="F170">
-        <v>30</v>
-      </c>
-      <c r="G170">
-        <v>120</v>
-      </c>
-      <c r="H170">
-        <v>30</v>
-      </c>
-      <c r="I170">
-        <v>301</v>
-      </c>
-      <c r="K170">
-        <v>301</v>
-      </c>
-      <c r="M170" t="s">
-        <v>91</v>
+    <row r="170" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1">
+        <v>373</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E170" s="1">
+        <v>30</v>
+      </c>
+      <c r="F170" s="1">
+        <v>30</v>
+      </c>
+      <c r="G170" s="1">
+        <v>60</v>
+      </c>
+      <c r="H170" s="1">
+        <v>30</v>
+      </c>
+      <c r="I170" s="1">
+        <v>200</v>
+      </c>
+      <c r="K170" s="1">
+        <v>200</v>
+      </c>
+      <c r="L170" s="1">
+        <v>130</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -6487,10 +6498,10 @@
         <v>5</v>
       </c>
       <c r="C171">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="D171" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E171">
         <v>30</v>
@@ -6519,28 +6530,31 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C172">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D172" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E172">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F172">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G172">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H172">
         <v>30</v>
+      </c>
+      <c r="I172">
+        <v>300</v>
       </c>
       <c r="K172">
         <v>300</v>
@@ -6554,28 +6568,31 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C173">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D173" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E173">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F173">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G173">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H173">
         <v>30</v>
+      </c>
+      <c r="I173">
+        <v>300</v>
       </c>
       <c r="K173">
         <v>300</v>
@@ -6589,94 +6606,237 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C174">
-        <v>363</v>
+        <v>290</v>
       </c>
       <c r="D174" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E174">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F174">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="G174">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H174">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="I174">
+        <v>301</v>
       </c>
       <c r="K174">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="M174" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B175">
         <v>5</v>
       </c>
       <c r="C175">
+        <v>294</v>
+      </c>
+      <c r="D175" t="s">
+        <v>129</v>
+      </c>
+      <c r="E175">
+        <v>30</v>
+      </c>
+      <c r="F175">
+        <v>30</v>
+      </c>
+      <c r="G175">
+        <v>60</v>
+      </c>
+      <c r="H175">
+        <v>30</v>
+      </c>
+      <c r="I175">
+        <v>300</v>
+      </c>
+      <c r="K175">
+        <v>300</v>
+      </c>
+      <c r="L175">
+        <v>130</v>
+      </c>
+      <c r="M175" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>196</v>
+      </c>
+      <c r="D176" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176">
+        <v>50</v>
+      </c>
+      <c r="F176">
+        <v>200</v>
+      </c>
+      <c r="G176">
+        <v>100</v>
+      </c>
+      <c r="H176">
+        <v>30</v>
+      </c>
+      <c r="K176">
+        <v>300</v>
+      </c>
+      <c r="L176">
+        <v>130</v>
+      </c>
+      <c r="M176" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>199</v>
+      </c>
+      <c r="D177" t="s">
+        <v>131</v>
+      </c>
+      <c r="E177">
+        <v>50</v>
+      </c>
+      <c r="F177">
+        <v>200</v>
+      </c>
+      <c r="G177">
+        <v>100</v>
+      </c>
+      <c r="H177">
+        <v>30</v>
+      </c>
+      <c r="K177">
+        <v>300</v>
+      </c>
+      <c r="L177">
+        <v>130</v>
+      </c>
+      <c r="M177" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>363</v>
+      </c>
+      <c r="D178" t="s">
+        <v>174</v>
+      </c>
+      <c r="E178">
+        <v>200</v>
+      </c>
+      <c r="F178">
+        <v>130</v>
+      </c>
+      <c r="G178">
+        <v>130</v>
+      </c>
+      <c r="H178">
+        <v>200</v>
+      </c>
+      <c r="K178">
+        <v>600</v>
+      </c>
+      <c r="M178" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
         <v>307</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D179" t="s">
         <v>176</v>
       </c>
-      <c r="E175">
+      <c r="E179">
         <v>200</v>
       </c>
-      <c r="F175">
-        <v>30</v>
-      </c>
-      <c r="G175">
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179">
         <v>200</v>
       </c>
-      <c r="H175">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="H179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B180" s="1">
         <v>5</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C180" s="1">
         <v>391</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E180" s="1">
         <v>200</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F180" s="1">
         <v>130</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G180" s="1">
         <v>130</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H180" s="1">
         <v>200</v>
       </c>
-      <c r="I176" s="1">
+      <c r="I180" s="1">
         <v>600</v>
       </c>
-      <c r="K176" s="1">
+      <c r="K180" s="1">
         <v>600</v>
       </c>
-      <c r="M176" s="1" t="s">
+      <c r="M180" s="1" t="s">
         <v>195</v>
       </c>
     </row>

--- a/src/threshold_calc/threshold.xlsx
+++ b/src/threshold_calc/threshold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gwy15\Documents\projects\幺明寺\zjsnr.github.io\src\threshold_calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE122C2C-4E3D-461F-9305-7247C826856E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DED9A-35DE-4E80-A846-B3E926877CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10680" xr2:uid="{137A96BE-252E-4FEA-8752-7DC6EBB297B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="209">
   <si>
     <t>声望</t>
   </si>
@@ -564,6 +564,126 @@
   </si>
   <si>
     <t>shipID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海王星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>早春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达芬奇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣乔治</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库图佐夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查尔斯·亚当斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>or</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特拉斯堡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天鹰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙彼利埃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>威斯康星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲尔普斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克利夫兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得梅因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧金山</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -939,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A335CF-90B5-4AE7-B73F-896AB722D96E}">
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1886,16 +2006,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="E31">
         <v>400</v>
@@ -1913,7 +2033,7 @@
         <v>300</v>
       </c>
       <c r="M31" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -1921,13 +2041,13 @@
         <v>136</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>305</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="E32">
         <v>400</v>
@@ -1936,7 +2056,7 @@
         <v>30</v>
       </c>
       <c r="G32">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -1956,10 +2076,10 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>400</v>
@@ -1968,7 +2088,7 @@
         <v>30</v>
       </c>
       <c r="G33">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="H33">
         <v>30</v>
@@ -1988,10 +2108,10 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="E34">
         <v>400</v>
@@ -2000,7 +2120,7 @@
         <v>30</v>
       </c>
       <c r="G34">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="H34">
         <v>30</v>
@@ -2014,94 +2134,112 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="E35">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F35">
         <v>30</v>
       </c>
       <c r="G35">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="H35">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="L35">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>126</v>
+        <v>345</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="E36">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="F36">
         <v>30</v>
       </c>
       <c r="G36">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H36">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>227</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37">
-        <v>250</v>
-      </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
-      <c r="G37">
-        <v>300</v>
-      </c>
-      <c r="H37">
-        <v>300</v>
+        <v>30</v>
+      </c>
+      <c r="L36">
+        <v>300</v>
+      </c>
+      <c r="M36" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>380</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="1">
+        <v>400</v>
+      </c>
+      <c r="F37" s="1">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1">
+        <v>600</v>
+      </c>
+      <c r="H37" s="1">
+        <v>30</v>
+      </c>
+      <c r="L37" s="1">
+        <v>300</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="E38">
         <v>250</v>
@@ -2121,13 +2259,13 @@
         <v>142</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E39">
         <v>250</v>
@@ -2147,13 +2285,13 @@
         <v>142</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E40">
         <v>250</v>
@@ -2173,13 +2311,13 @@
         <v>142</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>124</v>
+        <v>228</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>250</v>
@@ -2191,30 +2329,30 @@
         <v>300</v>
       </c>
       <c r="H41">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F42">
         <v>30</v>
       </c>
       <c r="G42">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H42">
         <v>300</v>
@@ -2222,25 +2360,25 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F43">
         <v>30</v>
       </c>
       <c r="G43">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H43">
         <v>300</v>
@@ -2248,28 +2386,28 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E44">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="F44">
         <v>30</v>
       </c>
       <c r="G44">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2280,10 +2418,10 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E45">
         <v>300</v>
@@ -2303,13 +2441,13 @@
         <v>143</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E46">
         <v>300</v>
@@ -2329,13 +2467,13 @@
         <v>143</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E47">
         <v>300</v>
@@ -2355,13 +2493,13 @@
         <v>143</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E48">
         <v>300</v>
@@ -2384,10 +2522,10 @@
         <v>5</v>
       </c>
       <c r="C49">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E49">
         <v>300</v>
@@ -2410,10 +2548,10 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E50">
         <v>300</v>
@@ -2436,10 +2574,10 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E51">
         <v>300</v>
@@ -2462,10 +2600,10 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="D52" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="E52">
         <v>300</v>
@@ -2488,10 +2626,10 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="E53">
         <v>300</v>
@@ -2508,16 +2646,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E54">
         <v>300</v>
@@ -2526,7 +2664,7 @@
         <v>30</v>
       </c>
       <c r="G54">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H54">
         <v>300</v>
@@ -2534,16 +2672,16 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>300</v>
@@ -2560,16 +2698,16 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>300</v>
@@ -2578,50 +2716,50 @@
         <v>30</v>
       </c>
       <c r="G56">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1">
+        <v>370</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" s="1">
+        <v>300</v>
+      </c>
+      <c r="F57" s="1">
+        <v>30</v>
+      </c>
+      <c r="G57" s="1">
         <v>450</v>
       </c>
-      <c r="H56">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57">
-        <v>300</v>
-      </c>
-      <c r="F57">
-        <v>30</v>
-      </c>
-      <c r="G57">
-        <v>250</v>
-      </c>
-      <c r="H57">
-        <v>30</v>
+      <c r="H57" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>300</v>
@@ -2630,24 +2768,24 @@
         <v>30</v>
       </c>
       <c r="G58">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H58">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>132</v>
+        <v>223</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E59">
         <v>300</v>
@@ -2656,24 +2794,24 @@
         <v>30</v>
       </c>
       <c r="G59">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="D60" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E60">
         <v>300</v>
@@ -2682,36 +2820,36 @@
         <v>30</v>
       </c>
       <c r="G60">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="H60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61">
-        <v>300</v>
-      </c>
-      <c r="F61">
-        <v>30</v>
-      </c>
-      <c r="G61">
-        <v>250</v>
-      </c>
-      <c r="H61">
-        <v>30</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>338</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="1">
+        <v>300</v>
+      </c>
+      <c r="F61" s="1">
+        <v>30</v>
+      </c>
+      <c r="G61" s="1">
+        <v>400</v>
+      </c>
+      <c r="H61" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E62">
         <v>300</v>
@@ -2748,10 +2886,10 @@
         <v>3</v>
       </c>
       <c r="C63">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E63">
         <v>300</v>
@@ -2774,10 +2912,10 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E64">
         <v>300</v>
@@ -2800,10 +2938,10 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D65" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E65">
         <v>300</v>
@@ -2826,10 +2964,10 @@
         <v>3</v>
       </c>
       <c r="C66">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E66">
         <v>300</v>
@@ -2852,10 +2990,10 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E67">
         <v>300</v>
@@ -2878,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="C68">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E68">
         <v>300</v>
@@ -2904,10 +3042,10 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E69">
         <v>300</v>
@@ -2927,22 +3065,22 @@
         <v>149</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E70">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F70">
         <v>30</v>
       </c>
       <c r="G70">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H70">
         <v>30</v>
@@ -2953,22 +3091,22 @@
         <v>149</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E71">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F71">
         <v>30</v>
       </c>
       <c r="G71">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H71">
         <v>30</v>
@@ -2979,22 +3117,22 @@
         <v>149</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E72">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F72">
         <v>30</v>
       </c>
       <c r="G72">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H72">
         <v>30</v>
@@ -3005,22 +3143,22 @@
         <v>149</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E73">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F73">
         <v>30</v>
       </c>
       <c r="G73">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H73">
         <v>30</v>
@@ -3031,22 +3169,22 @@
         <v>149</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E74">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F74">
         <v>30</v>
       </c>
       <c r="G74">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="H74">
         <v>30</v>
@@ -3060,10 +3198,10 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E75">
         <v>350</v>
@@ -3086,10 +3224,10 @@
         <v>4</v>
       </c>
       <c r="C76">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="E76">
         <v>350</v>
@@ -3112,10 +3250,10 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>340</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E77">
         <v>350</v>
@@ -3135,22 +3273,22 @@
         <v>149</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E78">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F78">
         <v>30</v>
       </c>
       <c r="G78">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="H78">
         <v>30</v>
@@ -3161,355 +3299,259 @@
         <v>149</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E79">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="F79">
         <v>30</v>
       </c>
       <c r="G79">
+        <v>300</v>
+      </c>
+      <c r="H79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>236</v>
+      </c>
+      <c r="D80" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80">
         <v>350</v>
       </c>
-      <c r="H79">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80" s="1">
-        <v>6</v>
-      </c>
-      <c r="C80" s="1">
-        <v>352</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" s="1">
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>300</v>
+      </c>
+      <c r="H80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1">
+        <v>240</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="1">
         <v>350</v>
       </c>
-      <c r="F80" s="1">
-        <v>30</v>
-      </c>
-      <c r="G80" s="1">
-        <v>300</v>
-      </c>
-      <c r="H80" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81">
-        <v>2</v>
-      </c>
-      <c r="C81">
-        <v>51</v>
-      </c>
-      <c r="D81" t="s">
-        <v>65</v>
-      </c>
-      <c r="E81">
-        <v>30</v>
-      </c>
-      <c r="F81">
-        <v>30</v>
-      </c>
-      <c r="G81">
-        <v>30</v>
-      </c>
-      <c r="H81">
-        <v>30</v>
-      </c>
-      <c r="I81">
-        <v>400</v>
-      </c>
-      <c r="K81">
-        <v>500</v>
-      </c>
-      <c r="L81">
-        <v>101</v>
-      </c>
-      <c r="M81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>52</v>
-      </c>
-      <c r="D82" t="s">
-        <v>66</v>
-      </c>
-      <c r="E82">
-        <v>30</v>
-      </c>
-      <c r="F82">
-        <v>30</v>
-      </c>
-      <c r="G82">
-        <v>30</v>
-      </c>
-      <c r="H82">
-        <v>30</v>
-      </c>
-      <c r="I82">
-        <v>400</v>
-      </c>
-      <c r="K82">
-        <v>500</v>
-      </c>
-      <c r="L82">
-        <v>101</v>
-      </c>
-      <c r="M82" t="s">
-        <v>91</v>
+      <c r="F81" s="1">
+        <v>30</v>
+      </c>
+      <c r="G81" s="1">
+        <v>300</v>
+      </c>
+      <c r="H81" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>246</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E82" s="1">
+        <v>350</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30</v>
+      </c>
+      <c r="G82" s="1">
+        <v>300</v>
+      </c>
+      <c r="H82" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>53</v>
+        <v>329</v>
       </c>
       <c r="D83" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="F83">
         <v>30</v>
       </c>
       <c r="G83">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H83">
         <v>30</v>
-      </c>
-      <c r="I83">
-        <v>400</v>
-      </c>
-      <c r="K83">
-        <v>500</v>
-      </c>
-      <c r="L83">
-        <v>101</v>
-      </c>
-      <c r="M83" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="F84">
         <v>30</v>
       </c>
       <c r="G84">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H84">
         <v>30</v>
-      </c>
-      <c r="I84">
-        <v>400</v>
-      </c>
-      <c r="K84">
-        <v>500</v>
-      </c>
-      <c r="L84">
-        <v>101</v>
-      </c>
-      <c r="M84" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F85">
         <v>30</v>
       </c>
       <c r="G85">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H85">
         <v>30</v>
-      </c>
-      <c r="I85">
-        <v>400</v>
-      </c>
-      <c r="K85">
-        <v>500</v>
-      </c>
-      <c r="L85">
-        <v>101</v>
-      </c>
-      <c r="M85" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E86">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F86">
         <v>30</v>
       </c>
       <c r="G86">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H86">
         <v>30</v>
       </c>
-      <c r="I86">
-        <v>400</v>
-      </c>
-      <c r="K86">
-        <v>500</v>
-      </c>
-      <c r="L86">
-        <v>101</v>
-      </c>
-      <c r="M86" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>152</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>56</v>
-      </c>
-      <c r="D87" t="s">
-        <v>71</v>
+    </row>
+    <row r="87" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87" s="1">
+        <v>6</v>
+      </c>
+      <c r="C87" s="1">
+        <v>243</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="E87">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="F87">
         <v>30</v>
       </c>
       <c r="G87">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="H87">
         <v>30</v>
       </c>
-      <c r="I87">
-        <v>400</v>
-      </c>
-      <c r="K87">
-        <v>500</v>
-      </c>
-      <c r="L87">
-        <v>101</v>
-      </c>
-      <c r="M87" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>57</v>
-      </c>
-      <c r="D88" t="s">
-        <v>72</v>
-      </c>
-      <c r="E88">
-        <v>60</v>
-      </c>
-      <c r="F88">
-        <v>30</v>
-      </c>
-      <c r="G88">
-        <v>60</v>
-      </c>
-      <c r="H88">
-        <v>30</v>
-      </c>
-      <c r="I88">
-        <v>400</v>
-      </c>
-      <c r="K88">
-        <v>500</v>
-      </c>
-      <c r="L88">
-        <v>101</v>
-      </c>
-      <c r="M88" t="s">
-        <v>91</v>
+    </row>
+    <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="1">
+        <v>6</v>
+      </c>
+      <c r="C88" s="1">
+        <v>352</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="1">
+        <v>350</v>
+      </c>
+      <c r="F88" s="1">
+        <v>30</v>
+      </c>
+      <c r="G88" s="1">
+        <v>300</v>
+      </c>
+      <c r="H88" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -3517,22 +3559,22 @@
         <v>152</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E89">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F89">
         <v>30</v>
       </c>
       <c r="G89">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>30</v>
@@ -3555,22 +3597,22 @@
         <v>152</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E90">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F90">
         <v>30</v>
       </c>
       <c r="G90">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>30</v>
@@ -3582,7 +3624,7 @@
         <v>500</v>
       </c>
       <c r="L90">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="M90" t="s">
         <v>91</v>
@@ -3593,22 +3635,22 @@
         <v>152</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="E91">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F91">
         <v>30</v>
       </c>
       <c r="G91">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H91">
         <v>30</v>
@@ -3631,22 +3673,22 @@
         <v>152</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C92">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="D92" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E92">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F92">
         <v>30</v>
       </c>
       <c r="G92">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>30</v>
@@ -3669,34 +3711,34 @@
         <v>152</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E93">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F93">
         <v>30</v>
       </c>
       <c r="G93">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H93">
         <v>30</v>
       </c>
       <c r="I93">
+        <v>400</v>
+      </c>
+      <c r="K93">
         <v>500</v>
       </c>
-      <c r="K93">
-        <v>600</v>
-      </c>
       <c r="L93">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M93" t="s">
         <v>91</v>
@@ -3707,34 +3749,34 @@
         <v>152</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D94" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E94">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F94">
         <v>30</v>
       </c>
       <c r="G94">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H94">
         <v>30</v>
       </c>
       <c r="I94">
+        <v>400</v>
+      </c>
+      <c r="K94">
         <v>500</v>
       </c>
-      <c r="K94">
-        <v>600</v>
-      </c>
       <c r="L94">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M94" t="s">
         <v>91</v>
@@ -3745,34 +3787,34 @@
         <v>152</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95">
+        <v>56</v>
+      </c>
+      <c r="D95" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95">
         <v>60</v>
       </c>
-      <c r="D95" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95">
-        <v>90</v>
-      </c>
       <c r="F95">
         <v>30</v>
       </c>
       <c r="G95">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H95">
         <v>30</v>
       </c>
       <c r="I95">
+        <v>400</v>
+      </c>
+      <c r="K95">
         <v>500</v>
       </c>
-      <c r="K95">
-        <v>600</v>
-      </c>
       <c r="L95">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M95" t="s">
         <v>91</v>
@@ -3783,34 +3825,34 @@
         <v>152</v>
       </c>
       <c r="B96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E96">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F96">
         <v>30</v>
       </c>
       <c r="G96">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H96">
         <v>30</v>
       </c>
       <c r="I96">
+        <v>400</v>
+      </c>
+      <c r="K96">
         <v>500</v>
       </c>
-      <c r="K96">
-        <v>600</v>
-      </c>
       <c r="L96">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M96" t="s">
         <v>91</v>
@@ -3821,34 +3863,34 @@
         <v>152</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E97">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F97">
         <v>30</v>
       </c>
       <c r="G97">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H97">
         <v>30</v>
       </c>
       <c r="I97">
+        <v>400</v>
+      </c>
+      <c r="K97">
         <v>500</v>
       </c>
-      <c r="K97">
-        <v>600</v>
-      </c>
       <c r="L97">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M97" t="s">
         <v>91</v>
@@ -3859,34 +3901,34 @@
         <v>152</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E98">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F98">
         <v>30</v>
       </c>
       <c r="G98">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H98">
         <v>30</v>
       </c>
       <c r="I98">
+        <v>400</v>
+      </c>
+      <c r="K98">
         <v>500</v>
       </c>
-      <c r="K98">
-        <v>600</v>
-      </c>
       <c r="L98">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M98" t="s">
         <v>91</v>
@@ -3897,34 +3939,34 @@
         <v>152</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="E99">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F99">
         <v>30</v>
       </c>
       <c r="G99">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H99">
         <v>30</v>
       </c>
       <c r="I99">
+        <v>400</v>
+      </c>
+      <c r="K99">
         <v>500</v>
       </c>
-      <c r="K99">
-        <v>600</v>
-      </c>
       <c r="L99">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M99" t="s">
         <v>91</v>
@@ -3935,34 +3977,34 @@
         <v>152</v>
       </c>
       <c r="B100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="E100">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <v>30</v>
       </c>
       <c r="G100">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H100">
         <v>30</v>
       </c>
       <c r="I100">
+        <v>400</v>
+      </c>
+      <c r="K100">
         <v>500</v>
       </c>
-      <c r="K100">
-        <v>600</v>
-      </c>
       <c r="L100">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="M100" t="s">
         <v>91</v>
@@ -3976,10 +4018,10 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E101">
         <v>90</v>
@@ -4000,7 +4042,7 @@
         <v>600</v>
       </c>
       <c r="L101">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M101" t="s">
         <v>91</v>
@@ -4014,10 +4056,10 @@
         <v>4</v>
       </c>
       <c r="C102">
-        <v>353</v>
+        <v>59</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E102">
         <v>90</v>
@@ -4038,7 +4080,7 @@
         <v>600</v>
       </c>
       <c r="L102">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M102" t="s">
         <v>91</v>
@@ -4052,31 +4094,31 @@
         <v>4</v>
       </c>
       <c r="C103">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E103">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F103">
         <v>30</v>
       </c>
       <c r="G103">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H103">
         <v>30</v>
       </c>
       <c r="I103">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="K103">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="L103">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M103" t="s">
         <v>91</v>
@@ -4087,34 +4129,34 @@
         <v>152</v>
       </c>
       <c r="B104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C104">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="D104" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E104">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F104">
         <v>30</v>
       </c>
       <c r="G104">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H104">
         <v>30</v>
       </c>
       <c r="I104">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="K104">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="L104">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="M104" t="s">
         <v>91</v>
@@ -4125,31 +4167,34 @@
         <v>152</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E105">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F105">
         <v>30</v>
       </c>
       <c r="G105">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H105">
         <v>30</v>
       </c>
       <c r="I105">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K105">
-        <v>400</v>
+        <v>600</v>
+      </c>
+      <c r="L105">
+        <v>201</v>
       </c>
       <c r="M105" t="s">
         <v>91</v>
@@ -4160,31 +4205,34 @@
         <v>152</v>
       </c>
       <c r="B106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E106">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F106">
         <v>30</v>
       </c>
       <c r="G106">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H106">
         <v>30</v>
       </c>
       <c r="I106">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K106">
-        <v>400</v>
+        <v>600</v>
+      </c>
+      <c r="L106">
+        <v>201</v>
       </c>
       <c r="M106" t="s">
         <v>91</v>
@@ -4195,60 +4243,75 @@
         <v>152</v>
       </c>
       <c r="B107">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C107">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="D107" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E107">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F107">
         <v>30</v>
       </c>
       <c r="G107">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H107">
         <v>30</v>
       </c>
       <c r="I107">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K107">
-        <v>400</v>
+        <v>600</v>
+      </c>
+      <c r="L107">
+        <v>201</v>
       </c>
       <c r="M107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>152</v>
-      </c>
-      <c r="B108">
-        <v>5</v>
-      </c>
-      <c r="C108">
-        <v>333</v>
-      </c>
-      <c r="D108" t="s">
+    <row r="108" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4</v>
+      </c>
+      <c r="C108" s="1">
+        <v>252</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E108" s="1">
         <v>90</v>
       </c>
-      <c r="E108">
-        <v>120</v>
-      </c>
-      <c r="F108">
-        <v>30</v>
-      </c>
-      <c r="G108">
-        <v>120</v>
-      </c>
-      <c r="H108">
-        <v>30</v>
+      <c r="F108" s="1">
+        <v>30</v>
+      </c>
+      <c r="G108" s="1">
+        <v>90</v>
+      </c>
+      <c r="H108" s="1">
+        <v>30</v>
+      </c>
+      <c r="I108" s="1">
+        <v>500</v>
+      </c>
+      <c r="K108" s="1">
+        <v>600</v>
+      </c>
+      <c r="L108" s="1">
+        <v>200</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -4256,57 +4319,72 @@
         <v>152</v>
       </c>
       <c r="B109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="D109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E109">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F109">
         <v>30</v>
       </c>
       <c r="G109">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H109">
         <v>30</v>
+      </c>
+      <c r="I109">
+        <v>500</v>
+      </c>
+      <c r="K109">
+        <v>600</v>
+      </c>
+      <c r="L109">
+        <v>201</v>
+      </c>
+      <c r="M109" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="D110" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F110">
         <v>30</v>
       </c>
       <c r="G110">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H110">
         <v>30</v>
       </c>
       <c r="I110">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K110">
-        <v>200</v>
+        <v>600</v>
+      </c>
+      <c r="L110">
+        <v>201</v>
       </c>
       <c r="M110" t="s">
         <v>91</v>
@@ -4314,34 +4392,37 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="D111" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E111">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F111">
         <v>30</v>
       </c>
       <c r="G111">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H111">
         <v>30</v>
       </c>
       <c r="I111">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K111">
-        <v>200</v>
+        <v>600</v>
+      </c>
+      <c r="L111">
+        <v>201</v>
       </c>
       <c r="M111" t="s">
         <v>91</v>
@@ -4349,104 +4430,113 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D112" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E112">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F112">
         <v>30</v>
       </c>
       <c r="G112">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H112">
         <v>30</v>
       </c>
       <c r="I112">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="K112">
-        <v>200</v>
+        <v>401</v>
+      </c>
+      <c r="L112">
+        <v>231</v>
       </c>
       <c r="M112" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>157</v>
-      </c>
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="C113">
-        <v>168</v>
-      </c>
-      <c r="D113" t="s">
-        <v>95</v>
-      </c>
-      <c r="E113">
-        <v>30</v>
-      </c>
-      <c r="F113">
-        <v>30</v>
-      </c>
-      <c r="G113">
-        <v>30</v>
-      </c>
-      <c r="H113">
-        <v>30</v>
-      </c>
-      <c r="I113">
-        <v>200</v>
-      </c>
-      <c r="K113">
-        <v>200</v>
-      </c>
-      <c r="M113" t="s">
-        <v>91</v>
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4</v>
+      </c>
+      <c r="C113" s="1">
+        <v>390</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="1">
+        <v>90</v>
+      </c>
+      <c r="F113" s="1">
+        <v>30</v>
+      </c>
+      <c r="G113" s="1">
+        <v>90</v>
+      </c>
+      <c r="H113" s="1">
+        <v>30</v>
+      </c>
+      <c r="I113" s="1">
+        <v>500</v>
+      </c>
+      <c r="K113" s="1">
+        <v>600</v>
+      </c>
+      <c r="L113" s="1">
+        <v>201</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C114">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="D114" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="F114">
         <v>30</v>
       </c>
       <c r="G114">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="H114">
         <v>30</v>
       </c>
       <c r="I114">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="K114">
-        <v>200</v>
+        <v>401</v>
+      </c>
+      <c r="L114">
+        <v>231</v>
       </c>
       <c r="M114" t="s">
         <v>91</v>
@@ -4454,34 +4544,34 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="D115" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E115">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F115">
         <v>30</v>
       </c>
       <c r="G115">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H115">
         <v>30</v>
       </c>
       <c r="I115">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K115">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M115" t="s">
         <v>91</v>
@@ -4489,34 +4579,34 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E116">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F116">
         <v>30</v>
       </c>
       <c r="G116">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H116">
         <v>30</v>
       </c>
       <c r="I116">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K116">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M116" t="s">
         <v>91</v>
@@ -4524,34 +4614,34 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="D117" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E117">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F117">
         <v>30</v>
       </c>
       <c r="G117">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H117">
         <v>30</v>
       </c>
       <c r="I117">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K117">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M117" t="s">
         <v>91</v>
@@ -4559,116 +4649,80 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>68</v>
+        <v>333</v>
       </c>
       <c r="D118" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E118">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F118">
         <v>30</v>
       </c>
       <c r="G118">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H118">
         <v>30</v>
-      </c>
-      <c r="I118">
-        <v>300</v>
-      </c>
-      <c r="K118">
-        <v>300</v>
-      </c>
-      <c r="L118">
-        <v>101</v>
-      </c>
-      <c r="M118" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>69</v>
+        <v>360</v>
       </c>
       <c r="D119" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E119">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F119">
         <v>30</v>
       </c>
       <c r="G119">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H119">
         <v>30</v>
       </c>
-      <c r="I119">
-        <v>300</v>
-      </c>
-      <c r="K119">
-        <v>300</v>
-      </c>
-      <c r="L119">
-        <v>101</v>
-      </c>
-      <c r="M119" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>157</v>
-      </c>
-      <c r="B120">
-        <v>3</v>
-      </c>
-      <c r="C120">
-        <v>70</v>
-      </c>
-      <c r="D120" t="s">
-        <v>102</v>
-      </c>
-      <c r="E120">
-        <v>60</v>
-      </c>
-      <c r="F120">
-        <v>30</v>
-      </c>
-      <c r="G120">
-        <v>60</v>
-      </c>
-      <c r="H120">
-        <v>30</v>
-      </c>
-      <c r="I120">
-        <v>300</v>
-      </c>
-      <c r="K120">
-        <v>300</v>
-      </c>
-      <c r="L120">
-        <v>101</v>
-      </c>
-      <c r="M120" t="s">
-        <v>91</v>
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" s="1">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>371</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E120" s="1">
+        <v>120</v>
+      </c>
+      <c r="F120" s="1">
+        <v>30</v>
+      </c>
+      <c r="G120" s="1">
+        <v>120</v>
+      </c>
+      <c r="H120" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -4676,34 +4730,31 @@
         <v>157</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E121">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F121">
         <v>30</v>
       </c>
       <c r="G121">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>30</v>
       </c>
       <c r="I121">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K121">
-        <v>300</v>
-      </c>
-      <c r="L121">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M121" t="s">
         <v>91</v>
@@ -4714,34 +4765,31 @@
         <v>157</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D122" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E122">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F122">
         <v>30</v>
       </c>
       <c r="G122">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>30</v>
       </c>
       <c r="I122">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K122">
-        <v>300</v>
-      </c>
-      <c r="L122">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M122" t="s">
         <v>91</v>
@@ -4752,34 +4800,31 @@
         <v>157</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D123" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E123">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F123">
         <v>30</v>
       </c>
       <c r="G123">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>30</v>
       </c>
       <c r="I123">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K123">
-        <v>300</v>
-      </c>
-      <c r="L123">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M123" t="s">
         <v>91</v>
@@ -4790,34 +4835,31 @@
         <v>157</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D124" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="E124">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F124">
         <v>30</v>
       </c>
       <c r="G124">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>30</v>
       </c>
       <c r="I124">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K124">
-        <v>300</v>
-      </c>
-      <c r="L124">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M124" t="s">
         <v>91</v>
@@ -4828,34 +4870,31 @@
         <v>157</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E125">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F125">
         <v>30</v>
       </c>
       <c r="G125">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H125">
         <v>30</v>
       </c>
       <c r="I125">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K125">
-        <v>300</v>
-      </c>
-      <c r="L125">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M125" t="s">
         <v>91</v>
@@ -4866,34 +4905,31 @@
         <v>157</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E126">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F126">
         <v>30</v>
       </c>
       <c r="G126">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>30</v>
       </c>
       <c r="I126">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K126">
-        <v>300</v>
-      </c>
-      <c r="L126">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M126" t="s">
         <v>91</v>
@@ -4904,34 +4940,31 @@
         <v>157</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="D127" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E127">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F127">
         <v>30</v>
       </c>
       <c r="G127">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H127">
         <v>30</v>
       </c>
       <c r="I127">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K127">
-        <v>300</v>
-      </c>
-      <c r="L127">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M127" t="s">
         <v>91</v>
@@ -4942,34 +4975,31 @@
         <v>157</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="D128" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E128">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="F128">
         <v>30</v>
       </c>
       <c r="G128">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="H128">
         <v>30</v>
       </c>
       <c r="I128">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K128">
-        <v>300</v>
-      </c>
-      <c r="L128">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="M128" t="s">
         <v>91</v>
@@ -4983,10 +5013,10 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="D129" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E129">
         <v>60</v>
@@ -5021,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="D130" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E130">
         <v>60</v>
@@ -5059,10 +5089,10 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="D131" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E131">
         <v>60</v>
@@ -5097,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="D132" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E132">
         <v>60</v>
@@ -5132,37 +5162,34 @@
         <v>157</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="D133" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E133">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F133">
         <v>30</v>
       </c>
       <c r="G133">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H133">
         <v>30</v>
       </c>
       <c r="I133">
-        <v>130</v>
-      </c>
-      <c r="J133">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K133">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="L133">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="M133" t="s">
         <v>91</v>
@@ -5173,34 +5200,34 @@
         <v>157</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D134" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E134">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F134">
         <v>30</v>
       </c>
       <c r="G134">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H134">
         <v>30</v>
       </c>
       <c r="I134">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K134">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L134">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M134" t="s">
         <v>91</v>
@@ -5211,34 +5238,34 @@
         <v>157</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="E135">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F135">
         <v>30</v>
       </c>
       <c r="G135">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H135">
         <v>30</v>
       </c>
       <c r="I135">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K135">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L135">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M135" t="s">
         <v>91</v>
@@ -5249,34 +5276,34 @@
         <v>157</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D136" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E136">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F136">
         <v>30</v>
       </c>
       <c r="G136">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H136">
         <v>30</v>
       </c>
       <c r="I136">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K136">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L136">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M136" t="s">
         <v>91</v>
@@ -5287,34 +5314,34 @@
         <v>157</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D137" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E137">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F137">
         <v>30</v>
       </c>
       <c r="G137">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H137">
         <v>30</v>
       </c>
       <c r="I137">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K137">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L137">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M137" t="s">
         <v>91</v>
@@ -5325,34 +5352,34 @@
         <v>157</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D138" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E138">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F138">
         <v>30</v>
       </c>
       <c r="G138">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H138">
         <v>30</v>
       </c>
       <c r="I138">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K138">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L138">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M138" t="s">
         <v>91</v>
@@ -5363,34 +5390,34 @@
         <v>157</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E139">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F139">
         <v>30</v>
       </c>
       <c r="G139">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H139">
         <v>30</v>
       </c>
       <c r="I139">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K139">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L139">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M139" t="s">
         <v>91</v>
@@ -5401,34 +5428,34 @@
         <v>157</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="D140" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="E140">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F140">
         <v>30</v>
       </c>
       <c r="G140">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H140">
         <v>30</v>
       </c>
       <c r="I140">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K140">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L140">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M140" t="s">
         <v>91</v>
@@ -5439,34 +5466,34 @@
         <v>157</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="D141" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="E141">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F141">
         <v>30</v>
       </c>
       <c r="G141">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H141">
         <v>30</v>
       </c>
       <c r="I141">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K141">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L141">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="M141" t="s">
         <v>91</v>
@@ -5477,31 +5504,31 @@
         <v>157</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="D142" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="E142">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F142">
         <v>30</v>
       </c>
       <c r="G142">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H142">
         <v>30</v>
       </c>
       <c r="I142">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K142">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L142">
         <v>101</v>
@@ -5515,25 +5542,37 @@
         <v>157</v>
       </c>
       <c r="B143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="D143" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E143">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F143">
         <v>30</v>
       </c>
       <c r="G143">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H143">
         <v>30</v>
+      </c>
+      <c r="I143">
+        <v>300</v>
+      </c>
+      <c r="K143">
+        <v>300</v>
+      </c>
+      <c r="L143">
+        <v>101</v>
+      </c>
+      <c r="M143" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
@@ -5541,25 +5580,40 @@
         <v>157</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="E144">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F144">
         <v>30</v>
       </c>
       <c r="G144">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>30</v>
+      </c>
+      <c r="I144">
+        <v>130</v>
+      </c>
+      <c r="J144">
+        <v>130</v>
+      </c>
+      <c r="K144">
+        <v>130</v>
+      </c>
+      <c r="L144">
+        <v>130</v>
+      </c>
+      <c r="M144" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
@@ -5567,25 +5621,37 @@
         <v>157</v>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D145" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E145">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F145">
         <v>30</v>
       </c>
       <c r="G145">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H145">
         <v>30</v>
+      </c>
+      <c r="I145">
+        <v>400</v>
+      </c>
+      <c r="K145">
+        <v>400</v>
+      </c>
+      <c r="L145">
+        <v>201</v>
+      </c>
+      <c r="M145" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -5593,25 +5659,37 @@
         <v>157</v>
       </c>
       <c r="B146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E146">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F146">
         <v>30</v>
       </c>
       <c r="G146">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H146">
         <v>30</v>
+      </c>
+      <c r="I146">
+        <v>400</v>
+      </c>
+      <c r="K146">
+        <v>400</v>
+      </c>
+      <c r="L146">
+        <v>201</v>
+      </c>
+      <c r="M146" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -5619,51 +5697,75 @@
         <v>157</v>
       </c>
       <c r="B147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D147" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E147">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F147">
         <v>30</v>
       </c>
       <c r="G147">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H147">
         <v>30</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>157</v>
-      </c>
-      <c r="B148">
-        <v>5</v>
-      </c>
-      <c r="C148">
-        <v>281</v>
-      </c>
-      <c r="D148" t="s">
-        <v>163</v>
-      </c>
-      <c r="E148">
-        <v>120</v>
-      </c>
-      <c r="F148">
-        <v>30</v>
-      </c>
-      <c r="G148">
-        <v>120</v>
-      </c>
-      <c r="H148">
-        <v>30</v>
+      <c r="I147">
+        <v>400</v>
+      </c>
+      <c r="K147">
+        <v>400</v>
+      </c>
+      <c r="L147">
+        <v>201</v>
+      </c>
+      <c r="M147" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1">
+        <v>262</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E148" s="1">
+        <v>90</v>
+      </c>
+      <c r="F148" s="1">
+        <v>30</v>
+      </c>
+      <c r="G148" s="1">
+        <v>90</v>
+      </c>
+      <c r="H148" s="1">
+        <v>30</v>
+      </c>
+      <c r="I148" s="1">
+        <v>400</v>
+      </c>
+      <c r="K148" s="1">
+        <v>400</v>
+      </c>
+      <c r="L148" s="1">
+        <v>201</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -5671,100 +5773,136 @@
         <v>157</v>
       </c>
       <c r="B149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="D149" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E149">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F149">
         <v>30</v>
       </c>
       <c r="G149">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="H149">
         <v>30</v>
+      </c>
+      <c r="I149">
+        <v>400</v>
+      </c>
+      <c r="K149">
+        <v>400</v>
+      </c>
+      <c r="L149">
+        <v>201</v>
+      </c>
+      <c r="M149" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D150" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E150">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F150">
         <v>30</v>
       </c>
       <c r="G150">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H150">
         <v>30</v>
+      </c>
+      <c r="I150">
+        <v>400</v>
+      </c>
+      <c r="K150">
+        <v>400</v>
+      </c>
+      <c r="L150">
+        <v>201</v>
+      </c>
+      <c r="M150" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="E151">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F151">
         <v>30</v>
       </c>
       <c r="G151">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="H151">
         <v>30</v>
+      </c>
+      <c r="I151">
+        <v>400</v>
+      </c>
+      <c r="K151">
+        <v>400</v>
+      </c>
+      <c r="L151">
+        <v>201</v>
+      </c>
+      <c r="M151" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E152">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F152">
         <v>30</v>
       </c>
       <c r="G152">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H152">
         <v>30</v>
@@ -5784,40 +5922,37 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="D153" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E153">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F153">
         <v>30</v>
       </c>
       <c r="G153">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H153">
         <v>30</v>
       </c>
       <c r="I153">
-        <v>212</v>
-      </c>
-      <c r="J153">
-        <v>261</v>
+        <v>400</v>
       </c>
       <c r="K153">
-        <v>203</v>
+        <v>400</v>
       </c>
       <c r="L153">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="M153" t="s">
         <v>91</v>
@@ -5825,171 +5960,159 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D154" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F154">
         <v>30</v>
       </c>
       <c r="G154">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H154">
         <v>30</v>
       </c>
       <c r="I154">
-        <v>300</v>
-      </c>
-      <c r="J154">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K154">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L154">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M154" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>167</v>
-      </c>
-      <c r="B155">
-        <v>5</v>
-      </c>
-      <c r="C155">
-        <v>194</v>
-      </c>
-      <c r="D155" t="s">
-        <v>126</v>
-      </c>
-      <c r="E155">
-        <v>30</v>
-      </c>
-      <c r="F155">
-        <v>30</v>
-      </c>
-      <c r="G155">
-        <v>60</v>
-      </c>
-      <c r="H155">
-        <v>30</v>
-      </c>
-      <c r="I155">
-        <v>300</v>
-      </c>
-      <c r="K155">
-        <v>300</v>
-      </c>
-      <c r="L155">
-        <v>130</v>
-      </c>
-      <c r="M155" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156">
-        <v>5</v>
-      </c>
-      <c r="C156">
-        <v>195</v>
-      </c>
-      <c r="D156" t="s">
-        <v>127</v>
-      </c>
-      <c r="E156">
-        <v>30</v>
-      </c>
-      <c r="F156">
-        <v>30</v>
-      </c>
-      <c r="G156">
-        <v>60</v>
-      </c>
-      <c r="H156">
-        <v>30</v>
-      </c>
-      <c r="I156">
-        <v>300</v>
-      </c>
-      <c r="K156">
-        <v>300</v>
-      </c>
-      <c r="L156">
-        <v>130</v>
-      </c>
-      <c r="M156" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4</v>
+      </c>
+      <c r="C155" s="1">
+        <v>350</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E155" s="1">
+        <v>90</v>
+      </c>
+      <c r="F155" s="1">
+        <v>30</v>
+      </c>
+      <c r="G155" s="1">
+        <v>90</v>
+      </c>
+      <c r="H155" s="1">
+        <v>30</v>
+      </c>
+      <c r="I155" s="1">
+        <v>400</v>
+      </c>
+      <c r="J155" s="1">
+        <v>200</v>
+      </c>
+      <c r="K155" s="1">
+        <v>400</v>
+      </c>
+      <c r="L155" s="1">
+        <v>201</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1">
+        <v>372</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" s="1">
+        <v>90</v>
+      </c>
+      <c r="F156" s="1">
+        <v>30</v>
+      </c>
+      <c r="G156" s="1">
+        <v>90</v>
+      </c>
+      <c r="H156" s="1">
+        <v>30</v>
+      </c>
+      <c r="I156" s="1">
+        <v>400</v>
+      </c>
+      <c r="K156" s="1">
+        <v>400</v>
+      </c>
+      <c r="L156" s="1">
+        <v>201</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>5</v>
       </c>
       <c r="C157">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D157" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E157">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F157">
         <v>30</v>
       </c>
       <c r="G157">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H157">
         <v>30</v>
-      </c>
-      <c r="I157">
-        <v>300</v>
-      </c>
-      <c r="K157">
-        <v>300</v>
-      </c>
-      <c r="L157">
-        <v>130</v>
-      </c>
-      <c r="M157" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B158">
         <v>5</v>
       </c>
       <c r="C158">
-        <v>290</v>
+        <v>171</v>
       </c>
       <c r="D158" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E158">
         <v>120</v>
@@ -6003,180 +6126,718 @@
       <c r="H158">
         <v>30</v>
       </c>
-      <c r="I158">
-        <v>301</v>
-      </c>
-      <c r="K158">
-        <v>301</v>
-      </c>
-      <c r="M158" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="D159" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E159">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F159">
         <v>30</v>
       </c>
       <c r="G159">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H159">
         <v>30</v>
-      </c>
-      <c r="I159">
-        <v>300</v>
-      </c>
-      <c r="K159">
-        <v>300</v>
-      </c>
-      <c r="L159">
-        <v>130</v>
-      </c>
-      <c r="M159" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C160">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D160" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E160">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F160">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G160">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H160">
         <v>30</v>
-      </c>
-      <c r="K160">
-        <v>300</v>
-      </c>
-      <c r="L160">
-        <v>130</v>
-      </c>
-      <c r="M160" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D161" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E161">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F161">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G161">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H161">
         <v>30</v>
-      </c>
-      <c r="K161">
-        <v>300</v>
-      </c>
-      <c r="L161">
-        <v>130</v>
-      </c>
-      <c r="M161" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C162">
-        <v>363</v>
+        <v>281</v>
       </c>
       <c r="D162" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E162">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="F162">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="G162">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H162">
-        <v>200</v>
-      </c>
-      <c r="K162">
-        <v>600</v>
-      </c>
-      <c r="M162" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B163">
         <v>5</v>
       </c>
       <c r="C163">
+        <v>323</v>
+      </c>
+      <c r="D163" t="s">
+        <v>164</v>
+      </c>
+      <c r="E163">
+        <v>120</v>
+      </c>
+      <c r="F163">
+        <v>30</v>
+      </c>
+      <c r="G163">
+        <v>120</v>
+      </c>
+      <c r="H163">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>347</v>
+      </c>
+      <c r="D164" t="s">
+        <v>198</v>
+      </c>
+      <c r="E164">
+        <v>120</v>
+      </c>
+      <c r="F164">
+        <v>30</v>
+      </c>
+      <c r="G164">
+        <v>120</v>
+      </c>
+      <c r="H164">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>259</v>
+      </c>
+      <c r="D165" t="s">
+        <v>125</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+      <c r="F165">
+        <v>30</v>
+      </c>
+      <c r="G165">
+        <v>200</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166">
+        <v>309</v>
+      </c>
+      <c r="D166" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166">
+        <v>30</v>
+      </c>
+      <c r="F166">
+        <v>30</v>
+      </c>
+      <c r="G166">
+        <v>200</v>
+      </c>
+      <c r="H166">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>361</v>
+      </c>
+      <c r="D167" t="s">
+        <v>168</v>
+      </c>
+      <c r="E167">
+        <v>30</v>
+      </c>
+      <c r="F167">
+        <v>30</v>
+      </c>
+      <c r="G167">
+        <v>60</v>
+      </c>
+      <c r="H167">
+        <v>30</v>
+      </c>
+      <c r="I167">
+        <v>400</v>
+      </c>
+      <c r="K167">
+        <v>400</v>
+      </c>
+      <c r="L167">
+        <v>201</v>
+      </c>
+      <c r="M167" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>293</v>
+      </c>
+      <c r="D168" t="s">
+        <v>169</v>
+      </c>
+      <c r="E168">
+        <v>30</v>
+      </c>
+      <c r="F168">
+        <v>30</v>
+      </c>
+      <c r="G168">
+        <v>60</v>
+      </c>
+      <c r="H168">
+        <v>30</v>
+      </c>
+      <c r="I168">
+        <v>212</v>
+      </c>
+      <c r="J168">
+        <v>261</v>
+      </c>
+      <c r="K168">
+        <v>203</v>
+      </c>
+      <c r="L168">
+        <v>107</v>
+      </c>
+      <c r="M168" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>351</v>
+      </c>
+      <c r="D169" t="s">
+        <v>170</v>
+      </c>
+      <c r="E169">
+        <v>30</v>
+      </c>
+      <c r="F169">
+        <v>30</v>
+      </c>
+      <c r="G169">
+        <v>60</v>
+      </c>
+      <c r="H169">
+        <v>30</v>
+      </c>
+      <c r="I169">
+        <v>300</v>
+      </c>
+      <c r="K169">
+        <v>300</v>
+      </c>
+      <c r="L169">
+        <v>130</v>
+      </c>
+      <c r="M169" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4</v>
+      </c>
+      <c r="C170" s="1">
+        <v>373</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E170" s="1">
+        <v>30</v>
+      </c>
+      <c r="F170" s="1">
+        <v>30</v>
+      </c>
+      <c r="G170" s="1">
+        <v>60</v>
+      </c>
+      <c r="H170" s="1">
+        <v>30</v>
+      </c>
+      <c r="I170" s="1">
+        <v>200</v>
+      </c>
+      <c r="K170" s="1">
+        <v>200</v>
+      </c>
+      <c r="L170" s="1">
+        <v>130</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>194</v>
+      </c>
+      <c r="D171" t="s">
+        <v>126</v>
+      </c>
+      <c r="E171">
+        <v>30</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>60</v>
+      </c>
+      <c r="H171">
+        <v>30</v>
+      </c>
+      <c r="I171">
+        <v>300</v>
+      </c>
+      <c r="K171">
+        <v>300</v>
+      </c>
+      <c r="L171">
+        <v>130</v>
+      </c>
+      <c r="M171" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>167</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172">
+        <v>195</v>
+      </c>
+      <c r="D172" t="s">
+        <v>127</v>
+      </c>
+      <c r="E172">
+        <v>30</v>
+      </c>
+      <c r="F172">
+        <v>30</v>
+      </c>
+      <c r="G172">
+        <v>60</v>
+      </c>
+      <c r="H172">
+        <v>30</v>
+      </c>
+      <c r="I172">
+        <v>300</v>
+      </c>
+      <c r="K172">
+        <v>300</v>
+      </c>
+      <c r="L172">
+        <v>130</v>
+      </c>
+      <c r="M172" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>167</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>198</v>
+      </c>
+      <c r="D173" t="s">
+        <v>128</v>
+      </c>
+      <c r="E173">
+        <v>30</v>
+      </c>
+      <c r="F173">
+        <v>30</v>
+      </c>
+      <c r="G173">
+        <v>60</v>
+      </c>
+      <c r="H173">
+        <v>30</v>
+      </c>
+      <c r="I173">
+        <v>300</v>
+      </c>
+      <c r="K173">
+        <v>300</v>
+      </c>
+      <c r="L173">
+        <v>130</v>
+      </c>
+      <c r="M173" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174">
+        <v>290</v>
+      </c>
+      <c r="D174" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174">
+        <v>120</v>
+      </c>
+      <c r="F174">
+        <v>30</v>
+      </c>
+      <c r="G174">
+        <v>120</v>
+      </c>
+      <c r="H174">
+        <v>30</v>
+      </c>
+      <c r="I174">
+        <v>301</v>
+      </c>
+      <c r="K174">
+        <v>301</v>
+      </c>
+      <c r="M174" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>294</v>
+      </c>
+      <c r="D175" t="s">
+        <v>129</v>
+      </c>
+      <c r="E175">
+        <v>30</v>
+      </c>
+      <c r="F175">
+        <v>30</v>
+      </c>
+      <c r="G175">
+        <v>60</v>
+      </c>
+      <c r="H175">
+        <v>30</v>
+      </c>
+      <c r="I175">
+        <v>300</v>
+      </c>
+      <c r="K175">
+        <v>300</v>
+      </c>
+      <c r="L175">
+        <v>130</v>
+      </c>
+      <c r="M175" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
+        <v>196</v>
+      </c>
+      <c r="D176" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176">
+        <v>50</v>
+      </c>
+      <c r="F176">
+        <v>200</v>
+      </c>
+      <c r="G176">
+        <v>100</v>
+      </c>
+      <c r="H176">
+        <v>30</v>
+      </c>
+      <c r="K176">
+        <v>300</v>
+      </c>
+      <c r="L176">
+        <v>130</v>
+      </c>
+      <c r="M176" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>172</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>199</v>
+      </c>
+      <c r="D177" t="s">
+        <v>131</v>
+      </c>
+      <c r="E177">
+        <v>50</v>
+      </c>
+      <c r="F177">
+        <v>200</v>
+      </c>
+      <c r="G177">
+        <v>100</v>
+      </c>
+      <c r="H177">
+        <v>30</v>
+      </c>
+      <c r="K177">
+        <v>300</v>
+      </c>
+      <c r="L177">
+        <v>130</v>
+      </c>
+      <c r="M177" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>173</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>363</v>
+      </c>
+      <c r="D178" t="s">
+        <v>174</v>
+      </c>
+      <c r="E178">
+        <v>200</v>
+      </c>
+      <c r="F178">
+        <v>130</v>
+      </c>
+      <c r="G178">
+        <v>130</v>
+      </c>
+      <c r="H178">
+        <v>200</v>
+      </c>
+      <c r="K178">
+        <v>600</v>
+      </c>
+      <c r="M178" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+      <c r="C179">
         <v>307</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D179" t="s">
         <v>176</v>
       </c>
-      <c r="E163">
+      <c r="E179">
         <v>200</v>
       </c>
-      <c r="F163">
-        <v>30</v>
-      </c>
-      <c r="G163">
+      <c r="F179">
+        <v>30</v>
+      </c>
+      <c r="G179">
         <v>200</v>
       </c>
-      <c r="H163">
-        <v>30</v>
+      <c r="H179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B180" s="1">
+        <v>5</v>
+      </c>
+      <c r="C180" s="1">
+        <v>391</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E180" s="1">
+        <v>200</v>
+      </c>
+      <c r="F180" s="1">
+        <v>130</v>
+      </c>
+      <c r="G180" s="1">
+        <v>130</v>
+      </c>
+      <c r="H180" s="1">
+        <v>200</v>
+      </c>
+      <c r="I180" s="1">
+        <v>600</v>
+      </c>
+      <c r="K180" s="1">
+        <v>600</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
